--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262540.8281130845</v>
+        <v>253842.0011298238</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23677050.45168995</v>
+        <v>23677050.45168996</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12203498.10215293</v>
+        <v>12203498.10215294</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>361.9835706100485</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6363228662099</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.24665541643247</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2089395171078</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>115.6812375234605</v>
       </c>
     </row>
     <row r="12">
@@ -1460,13 +1460,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.8476140545637</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.68070704368179</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>86.98708158305921</v>
       </c>
       <c r="T12" t="n">
         <v>153.4251245327676</v>
       </c>
       <c r="U12" t="n">
-        <v>164.2138387924555</v>
+        <v>195.3067371278844</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>32.19666628187648</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.84326809844246</v>
+        <v>164.6786574470417</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1164109798385</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.8567289220076</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.311088298201</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>43.20060765127375</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6363228662099</v>
       </c>
       <c r="H14" t="n">
-        <v>201.7373747780777</v>
+        <v>287.2689997357243</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.202881044483348</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.24665541643247</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>254.3295125510941</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>158.6490011535024</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>84.63528786737236</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.8476140545637</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.68070704368179</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>45.24036120765707</v>
       </c>
       <c r="T15" t="n">
-        <v>153.4251245327676</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3067371278844</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>60.14924463960425</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.6036040157975</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.8567289220076</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.311088298201</v>
       </c>
       <c r="U16" t="n">
         <v>279.9211170857005</v>
@@ -1846,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>285.5914317429625</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.51394889769135</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U17" t="n">
         <v>254.3164081508089</v>
       </c>
       <c r="V17" t="n">
-        <v>41.06198005180094</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>129.695111423746</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.35914380204984</v>
+        <v>55.17461090495836</v>
       </c>
       <c r="T18" t="n">
-        <v>122.8873272151931</v>
+        <v>153.0718601122841</v>
       </c>
       <c r="U18" t="n">
         <v>195.3009711144925</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.605180161631</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.93063304686405</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.576220229896</v>
+        <v>68.42325138856454</v>
       </c>
       <c r="T19" t="n">
         <v>232.9971398969008</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V19" t="n">
-        <v>175.2062368945105</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278.4413834837797</v>
+        <v>187.4216729199322</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.4725178626447</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>210.4918831140013</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3164081508089</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>55.1746109049588</v>
       </c>
       <c r="H21" t="n">
-        <v>58.83425627773548</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.35914380204984</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>64.05307093745763</v>
+        <v>153.0718601122841</v>
       </c>
       <c r="U21" t="n">
         <v>195.3009711144925</v>
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.93063304686405</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.5206930551466</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>83.48449760187248</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>74.99427384290856</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4725178626447</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>84.51394889769135</v>
       </c>
       <c r="T23" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3164081508089</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.5606852654195</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.35914380204984</v>
+        <v>85.35914380205026</v>
       </c>
       <c r="T24" t="n">
         <v>153.0718601122841</v>
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>97.59683105276608</v>
       </c>
       <c r="G25" t="n">
-        <v>113.3372802919412</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.576220229896</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.9971398969008</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>270.9229431560979</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>224.2419445119779</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I26" t="n">
         <v>1.887788644537451</v>
@@ -2608,13 +2608,13 @@
         <v>84.51394889769135</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.605180161631</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>92.81957250049632</v>
       </c>
       <c r="T28" t="n">
         <v>232.9971398969008</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>95.22445886109587</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>249.9717565628773</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4725178626447</v>
+        <v>191.8820726150195</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I29" t="n">
         <v>1.887788644537451</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.51394889769135</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3164081508089</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.7599706510052</v>
       </c>
       <c r="H30" t="n">
-        <v>58.83425627773541</v>
+        <v>58.83425627773548</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.605180161631</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.93063304686405</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.576220229896</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9971398969008</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9171092337691</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2072201590538</v>
+        <v>112.2329384028371</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>361.10700745346</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>84.51394889769135</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3164081508089</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>307.0730539315994</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>125.8314582056106</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>64.73125815231259</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.93063304686405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.9971398969008</v>
       </c>
       <c r="U34" t="n">
         <v>279.9171092337691</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106.4290193696783</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>201.6499082993373</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.5914317429625</v>
       </c>
       <c r="I35" t="n">
         <v>1.887788644537451</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.51394889769135</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3164081508089</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.605180161631</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.576220229896</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>189.0410141270012</v>
       </c>
       <c r="U37" t="n">
-        <v>6.695545076341645</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>212.2336197591322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>84.51394889769135</v>
       </c>
       <c r="T38" t="n">
-        <v>87.97394200648667</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U38" t="n">
         <v>254.3164081508089</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7599706510052</v>
+        <v>104.7599706510051</v>
       </c>
       <c r="H39" t="n">
-        <v>58.83425627773541</v>
+        <v>58.83425627773548</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,7 +3678,7 @@
         <v>164.605180161631</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.576220229896</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>78.09366137785001</v>
+        <v>232.9971398969008</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9171092337691</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>135.9080060725188</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4725178626447</v>
+        <v>338.316032714944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>176.5787518048197</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.35914380204984</v>
+        <v>55.17461090495836</v>
       </c>
       <c r="T42" t="n">
         <v>153.0718601122841</v>
       </c>
       <c r="U42" t="n">
-        <v>165.1164382174009</v>
+        <v>195.3009711144925</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>162.2321823625866</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.93063304686405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>89.19575309672359</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>22.60947799774609</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4725178626447</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.887788644537451</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>84.51394889769135</v>
       </c>
       <c r="T44" t="n">
-        <v>49.36164764994262</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3164081508089</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.605180161631</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.576220229896</v>
       </c>
       <c r="T46" t="n">
-        <v>120.7537874303491</v>
+        <v>232.9971398969008</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9171092337691</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>124.6758548942366</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>816.6055678398054</v>
+        <v>858.5957320977345</v>
       </c>
       <c r="C11" t="n">
-        <v>406.4809771530755</v>
+        <v>858.5957320977345</v>
       </c>
       <c r="D11" t="n">
-        <v>406.4809771530755</v>
+        <v>858.5957320977345</v>
       </c>
       <c r="E11" t="n">
-        <v>40.84100683989516</v>
+        <v>858.5957320977345</v>
       </c>
       <c r="F11" t="n">
-        <v>40.84100683989516</v>
+        <v>447.5443632704102</v>
       </c>
       <c r="G11" t="n">
-        <v>40.84100683989516</v>
+        <v>40.84100683989514</v>
       </c>
       <c r="H11" t="n">
-        <v>40.84100683989516</v>
+        <v>40.84100683989514</v>
       </c>
       <c r="I11" t="n">
-        <v>32.5552684111241</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="J11" t="n">
-        <v>128.4080406000707</v>
+        <v>128.4080406000704</v>
       </c>
       <c r="K11" t="n">
-        <v>292.6155987330195</v>
+        <v>292.6155987330192</v>
       </c>
       <c r="L11" t="n">
-        <v>511.2748083749502</v>
+        <v>511.2748083749498</v>
       </c>
       <c r="M11" t="n">
-        <v>767.4014323856593</v>
+        <v>767.4014323856588</v>
       </c>
       <c r="N11" t="n">
         <v>1029.54104533843</v>
@@ -5065,28 +5065,28 @@
         <v>1589.535326201295</v>
       </c>
       <c r="R11" t="n">
-        <v>1627.763420556205</v>
+        <v>1627.763420556204</v>
       </c>
       <c r="S11" t="n">
-        <v>1627.763420556205</v>
+        <v>1538.62538478203</v>
       </c>
       <c r="T11" t="n">
-        <v>1627.763420556205</v>
+        <v>1325.283021633436</v>
       </c>
       <c r="U11" t="n">
-        <v>1627.763420556205</v>
+        <v>1325.283021633436</v>
       </c>
       <c r="V11" t="n">
-        <v>1627.763420556205</v>
+        <v>975.4454669699169</v>
       </c>
       <c r="W11" t="n">
-        <v>1627.763420556205</v>
+        <v>975.4454669699169</v>
       </c>
       <c r="X11" t="n">
-        <v>1627.763420556205</v>
+        <v>975.4454669699169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1226.826747504295</v>
+        <v>858.5957320977345</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>403.940313450458</v>
+        <v>679.0904165995144</v>
       </c>
       <c r="C12" t="n">
-        <v>269.9452421994037</v>
+        <v>545.0953453484601</v>
       </c>
       <c r="D12" t="n">
-        <v>153.0480844187961</v>
+        <v>428.1981875678525</v>
       </c>
       <c r="E12" t="n">
-        <v>32.5552684111241</v>
+        <v>307.7053715601805</v>
       </c>
       <c r="F12" t="n">
-        <v>32.5552684111241</v>
+        <v>198.7454917426851</v>
       </c>
       <c r="G12" t="n">
-        <v>32.5552684111241</v>
+        <v>92.83881087948953</v>
       </c>
       <c r="H12" t="n">
-        <v>32.5552684111241</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="I12" t="n">
-        <v>32.5552684111241</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="J12" t="n">
-        <v>325.6916988266838</v>
+        <v>82.02329485205053</v>
       </c>
       <c r="K12" t="n">
-        <v>441.8931391791477</v>
+        <v>198.2247352045145</v>
       </c>
       <c r="L12" t="n">
-        <v>616.9009450492894</v>
+        <v>373.2325410746561</v>
       </c>
       <c r="M12" t="n">
-        <v>828.9663315245878</v>
+        <v>585.2979275499545</v>
       </c>
       <c r="N12" t="n">
-        <v>1052.479958950513</v>
+        <v>808.8115549758802</v>
       </c>
       <c r="O12" t="n">
-        <v>1303.79959273026</v>
+        <v>1004.283840083586</v>
       </c>
       <c r="P12" t="n">
-        <v>1452.853442841734</v>
+        <v>1153.337690195061</v>
       </c>
       <c r="Q12" t="n">
-        <v>1532.274719757893</v>
+        <v>1532.274719757892</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.763420556205</v>
+        <v>1627.763420556204</v>
       </c>
       <c r="S12" t="n">
-        <v>1627.763420556205</v>
+        <v>1539.897681583417</v>
       </c>
       <c r="T12" t="n">
-        <v>1472.788547290783</v>
+        <v>1384.922808317995</v>
       </c>
       <c r="U12" t="n">
-        <v>1306.915982853959</v>
+        <v>1187.643275865587</v>
       </c>
       <c r="V12" t="n">
-        <v>1093.204455846993</v>
+        <v>1187.643275865587</v>
       </c>
       <c r="W12" t="n">
-        <v>879.9712875833218</v>
+        <v>1155.121390732378</v>
       </c>
       <c r="X12" t="n">
-        <v>703.6453057222146</v>
+        <v>978.795408871271</v>
       </c>
       <c r="Y12" t="n">
-        <v>544.2433460860447</v>
+        <v>819.393449235101</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>885.6141953135271</v>
+        <v>198.8973466404592</v>
       </c>
       <c r="C13" t="n">
-        <v>714.5208228752437</v>
+        <v>198.8973466404592</v>
       </c>
       <c r="D13" t="n">
-        <v>555.0261781981537</v>
+        <v>198.8973466404592</v>
       </c>
       <c r="E13" t="n">
-        <v>394.1153630664732</v>
+        <v>198.8973466404592</v>
       </c>
       <c r="F13" t="n">
-        <v>229.4842371770645</v>
+        <v>198.8973466404592</v>
       </c>
       <c r="G13" t="n">
-        <v>174.0869966735872</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="H13" t="n">
-        <v>32.5552684111241</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="I13" t="n">
-        <v>32.5552684111241</v>
+        <v>32.55526841112408</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5776033752377</v>
+        <v>109.5776033752376</v>
       </c>
       <c r="K13" t="n">
-        <v>367.5593331088915</v>
+        <v>223.8700159671432</v>
       </c>
       <c r="L13" t="n">
-        <v>445.8313472317611</v>
+        <v>616.1211413250359</v>
       </c>
       <c r="M13" t="n">
-        <v>848.7027938194217</v>
+        <v>1018.992587912696</v>
       </c>
       <c r="N13" t="n">
-        <v>1251.574240407082</v>
+        <v>1104.027673245759</v>
       </c>
       <c r="O13" t="n">
-        <v>1321.891104027922</v>
+        <v>1174.344536866598</v>
       </c>
       <c r="P13" t="n">
         <v>1487.690146471444</v>
       </c>
       <c r="Q13" t="n">
-        <v>1627.763420556205</v>
+        <v>1627.763420556204</v>
       </c>
       <c r="R13" t="n">
-        <v>1627.763420556205</v>
+        <v>1627.763420556204</v>
       </c>
       <c r="S13" t="n">
-        <v>1627.763420556205</v>
+        <v>1457.201068109732</v>
       </c>
       <c r="T13" t="n">
-        <v>1627.763420556205</v>
+        <v>1221.533302151953</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.763420556205</v>
+        <v>1177.896324726424</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.763420556205</v>
+        <v>904.0105796659459</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.693756065079</v>
+        <v>624.9409151748202</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.349893924762</v>
+        <v>386.5970530345036</v>
       </c>
       <c r="Y13" t="n">
-        <v>885.6141953135271</v>
+        <v>386.5970530345036</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="C14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="D14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="E14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="F14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3303944495864</v>
+        <v>331.0117136436571</v>
       </c>
       <c r="H14" t="n">
-        <v>32.5552684111241</v>
+        <v>40.84100683989516</v>
       </c>
       <c r="I14" t="n">
         <v>32.5552684111241</v>
@@ -5281,13 +5281,13 @@
         <v>128.4080406000705</v>
       </c>
       <c r="K14" t="n">
-        <v>292.6155987330192</v>
+        <v>292.6155987330194</v>
       </c>
       <c r="L14" t="n">
-        <v>511.2748083749498</v>
+        <v>511.27480837495</v>
       </c>
       <c r="M14" t="n">
-        <v>767.4014323856589</v>
+        <v>767.4014323856591</v>
       </c>
       <c r="N14" t="n">
         <v>1029.54104533843</v>
@@ -5305,25 +5305,25 @@
         <v>1627.763420556205</v>
       </c>
       <c r="S14" t="n">
-        <v>1627.763420556205</v>
+        <v>1538.62538478203</v>
       </c>
       <c r="T14" t="n">
-        <v>1627.763420556205</v>
+        <v>1538.62538478203</v>
       </c>
       <c r="U14" t="n">
-        <v>1370.864923029847</v>
+        <v>1281.726887255673</v>
       </c>
       <c r="V14" t="n">
-        <v>1021.027368366328</v>
+        <v>1281.726887255673</v>
       </c>
       <c r="W14" t="n">
-        <v>637.2670675014963</v>
+        <v>897.9665863908413</v>
       </c>
       <c r="X14" t="n">
-        <v>637.2670675014963</v>
+        <v>737.7150700741721</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.3303944495864</v>
+        <v>737.7150700741721</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>372.533345434873</v>
+        <v>679.0904165995146</v>
       </c>
       <c r="C15" t="n">
-        <v>238.5382741838187</v>
+        <v>545.0953453484602</v>
       </c>
       <c r="D15" t="n">
-        <v>153.0480844187961</v>
+        <v>428.1981875678526</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5552684111241</v>
+        <v>307.7053715601807</v>
       </c>
       <c r="F15" t="n">
-        <v>32.5552684111241</v>
+        <v>198.7454917426852</v>
       </c>
       <c r="G15" t="n">
-        <v>32.5552684111241</v>
+        <v>92.83881087948956</v>
       </c>
       <c r="H15" t="n">
         <v>32.5552684111241</v>
       </c>
       <c r="I15" t="n">
-        <v>48.77962445687886</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="J15" t="n">
-        <v>341.9160548724386</v>
+        <v>325.6916988266838</v>
       </c>
       <c r="K15" t="n">
-        <v>458.1174952249025</v>
+        <v>497.7404878511882</v>
       </c>
       <c r="L15" t="n">
-        <v>633.1253010950442</v>
+        <v>672.7482937213298</v>
       </c>
       <c r="M15" t="n">
-        <v>845.1906875703426</v>
+        <v>884.8136801966282</v>
       </c>
       <c r="N15" t="n">
-        <v>1068.704314996268</v>
+        <v>1108.327307622554</v>
       </c>
       <c r="O15" t="n">
-        <v>1264.176600103974</v>
+        <v>1303.79959273026</v>
       </c>
       <c r="P15" t="n">
-        <v>1413.230450215449</v>
+        <v>1452.853442841734</v>
       </c>
       <c r="Q15" t="n">
         <v>1532.274719757893</v>
@@ -5384,25 +5384,25 @@
         <v>1627.763420556205</v>
       </c>
       <c r="S15" t="n">
-        <v>1627.763420556205</v>
+        <v>1582.066086003016</v>
       </c>
       <c r="T15" t="n">
-        <v>1472.788547290783</v>
+        <v>1582.066086003016</v>
       </c>
       <c r="U15" t="n">
-        <v>1275.509014838374</v>
+        <v>1582.066086003016</v>
       </c>
       <c r="V15" t="n">
-        <v>1061.797487831408</v>
+        <v>1368.354558996049</v>
       </c>
       <c r="W15" t="n">
-        <v>848.5643195677368</v>
+        <v>1155.121390732378</v>
       </c>
       <c r="X15" t="n">
-        <v>672.2383377066296</v>
+        <v>978.7954088712712</v>
       </c>
       <c r="Y15" t="n">
-        <v>512.8363780704597</v>
+        <v>819.3934492351012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.4174946897074</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="C16" t="n">
-        <v>158.4174946897074</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="D16" t="n">
-        <v>158.4174946897074</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="E16" t="n">
-        <v>158.4174946897074</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="F16" t="n">
-        <v>158.4174946897074</v>
+        <v>32.5552684111241</v>
       </c>
       <c r="G16" t="n">
         <v>32.5552684111241</v>
@@ -5436,25 +5436,25 @@
         <v>32.5552684111241</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5776033752377</v>
+        <v>44.57623974390126</v>
       </c>
       <c r="K16" t="n">
-        <v>161.2791395231773</v>
+        <v>96.27777589184089</v>
       </c>
       <c r="L16" t="n">
-        <v>553.5302648810699</v>
+        <v>488.5289012497335</v>
       </c>
       <c r="M16" t="n">
-        <v>637.3767338481887</v>
+        <v>572.3753702168523</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.248180435849</v>
+        <v>975.2468168045129</v>
       </c>
       <c r="O16" t="n">
-        <v>1425.63980347543</v>
+        <v>1360.638439844093</v>
       </c>
       <c r="P16" t="n">
-        <v>1487.690146471444</v>
+        <v>1613.964106677281</v>
       </c>
       <c r="Q16" t="n">
         <v>1627.763420556205</v>
@@ -5463,25 +5463,25 @@
         <v>1627.763420556205</v>
       </c>
       <c r="S16" t="n">
-        <v>1457.201068109732</v>
+        <v>1627.763420556205</v>
       </c>
       <c r="T16" t="n">
-        <v>1457.201068109732</v>
+        <v>1392.095654598426</v>
       </c>
       <c r="U16" t="n">
-        <v>1174.452464992863</v>
+        <v>1109.347051481557</v>
       </c>
       <c r="V16" t="n">
-        <v>900.566719932385</v>
+        <v>835.4613064210787</v>
       </c>
       <c r="W16" t="n">
-        <v>621.4970554412594</v>
+        <v>556.391641929953</v>
       </c>
       <c r="X16" t="n">
-        <v>383.1531933009427</v>
+        <v>318.0477797896364</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.4174946897074</v>
+        <v>93.31208117840112</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>735.1506674926386</v>
+        <v>731.3968639295526</v>
       </c>
       <c r="C17" t="n">
-        <v>325.0260768059086</v>
+        <v>731.3968639295526</v>
       </c>
       <c r="D17" t="n">
-        <v>325.0260768059086</v>
+        <v>326.9329340226132</v>
       </c>
       <c r="E17" t="n">
-        <v>325.0260768059086</v>
+        <v>326.9329340226132</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0260768059086</v>
+        <v>326.9329340226132</v>
       </c>
       <c r="G17" t="n">
-        <v>325.0260768059086</v>
+        <v>326.9329340226132</v>
       </c>
       <c r="H17" t="n">
-        <v>36.54988312614848</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="I17" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="J17" t="n">
         <v>146.1663727872201</v>
       </c>
       <c r="K17" t="n">
-        <v>331.0021755351986</v>
+        <v>331.0021755351984</v>
       </c>
       <c r="L17" t="n">
-        <v>575.2525466962375</v>
+        <v>575.2525466962372</v>
       </c>
       <c r="M17" t="n">
-        <v>859.8542687858853</v>
+        <v>859.8542687858849</v>
       </c>
       <c r="N17" t="n">
-        <v>1150.929736674311</v>
+        <v>1150.92973667431</v>
       </c>
       <c r="O17" t="n">
         <v>1420.383266267625</v>
@@ -5536,31 +5536,31 @@
         <v>1636.382714399909</v>
       </c>
       <c r="Q17" t="n">
-        <v>1779.079342057867</v>
+        <v>1779.079342057866</v>
       </c>
       <c r="R17" t="n">
         <v>1827.494156307424</v>
       </c>
       <c r="S17" t="n">
-        <v>1827.494156307424</v>
+        <v>1742.12653115824</v>
       </c>
       <c r="T17" t="n">
-        <v>1827.494156307424</v>
+        <v>1529.508467406724</v>
       </c>
       <c r="U17" t="n">
-        <v>1570.608895549031</v>
+        <v>1272.623206648331</v>
       </c>
       <c r="V17" t="n">
-        <v>1529.132148021959</v>
+        <v>1272.623206648331</v>
       </c>
       <c r="W17" t="n">
-        <v>1145.371847157128</v>
+        <v>1141.618043594042</v>
       </c>
       <c r="X17" t="n">
-        <v>1145.371847157128</v>
+        <v>1141.618043594042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1145.371847157128</v>
+        <v>1141.618043594042</v>
       </c>
     </row>
     <row r="18">
@@ -5582,46 +5582,46 @@
         <v>145.5097629436439</v>
       </c>
       <c r="F18" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="G18" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="H18" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="I18" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="J18" t="n">
-        <v>337.8838893772017</v>
+        <v>94.21548540256852</v>
       </c>
       <c r="K18" t="n">
-        <v>668.3744120194706</v>
+        <v>224.4278885485596</v>
       </c>
       <c r="L18" t="n">
-        <v>862.2216864257113</v>
+        <v>418.2751629548003</v>
       </c>
       <c r="M18" t="n">
-        <v>1096.271844082313</v>
+        <v>652.3253206114025</v>
       </c>
       <c r="N18" t="n">
-        <v>1342.352114164984</v>
+        <v>898.4055906940728</v>
       </c>
       <c r="O18" t="n">
-        <v>1558.468468552111</v>
+        <v>1114.5219450812</v>
       </c>
       <c r="P18" t="n">
-        <v>1724.091004273618</v>
+        <v>1280.144480802707</v>
       </c>
       <c r="Q18" t="n">
-        <v>1814.588008737997</v>
+        <v>1726.618292261015</v>
       </c>
       <c r="R18" t="n">
         <v>1827.494156307424</v>
       </c>
       <c r="S18" t="n">
-        <v>1741.272798931616</v>
+        <v>1771.762226100395</v>
       </c>
       <c r="T18" t="n">
         <v>1617.144185582936</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>595.1193366150526</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="C19" t="n">
-        <v>595.1193366150526</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="D19" t="n">
-        <v>595.1193366150526</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="E19" t="n">
-        <v>595.1193366150526</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="F19" t="n">
-        <v>430.4882107256439</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="G19" t="n">
-        <v>264.2203519765216</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="H19" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="I19" t="n">
-        <v>36.54988312614848</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="J19" t="n">
-        <v>53.71375009667567</v>
+        <v>53.71375009667565</v>
       </c>
       <c r="K19" t="n">
         <v>113.8666436125522</v>
       </c>
       <c r="L19" t="n">
-        <v>482.2676869649691</v>
+        <v>516.9325967009019</v>
       </c>
       <c r="M19" t="n">
-        <v>922.4832249374012</v>
+        <v>957.148134673334</v>
       </c>
       <c r="N19" t="n">
-        <v>1350.684200025912</v>
+        <v>1385.349109761844</v>
       </c>
       <c r="O19" t="n">
-        <v>1746.35764656758</v>
+        <v>1746.357646567579</v>
       </c>
       <c r="P19" t="n">
         <v>1807.60364894524</v>
@@ -5700,25 +5700,25 @@
         <v>1827.494156307424</v>
       </c>
       <c r="S19" t="n">
-        <v>1658.225246984297</v>
+        <v>1758.379760965439</v>
       </c>
       <c r="T19" t="n">
-        <v>1422.874600623791</v>
+        <v>1523.029114604933</v>
       </c>
       <c r="U19" t="n">
-        <v>1422.874600623791</v>
+        <v>1240.284559823348</v>
       </c>
       <c r="V19" t="n">
-        <v>1245.898603760649</v>
+        <v>966.3988147628704</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.898603760649</v>
+        <v>687.3291502717448</v>
       </c>
       <c r="X19" t="n">
-        <v>1007.554741620332</v>
+        <v>448.9852881314282</v>
       </c>
       <c r="Y19" t="n">
-        <v>782.819043009097</v>
+        <v>224.2495895201929</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>446.6744738128784</v>
+        <v>733.4708308535675</v>
       </c>
       <c r="C20" t="n">
-        <v>36.54988312614848</v>
+        <v>733.4708308535675</v>
       </c>
       <c r="D20" t="n">
-        <v>36.54988312614848</v>
+        <v>733.4708308535675</v>
       </c>
       <c r="E20" t="n">
-        <v>36.54988312614848</v>
+        <v>733.4708308535675</v>
       </c>
       <c r="F20" t="n">
-        <v>36.54988312614848</v>
+        <v>733.4708308535675</v>
       </c>
       <c r="G20" t="n">
-        <v>36.54988312614848</v>
+        <v>326.9329340226132</v>
       </c>
       <c r="H20" t="n">
-        <v>36.54988312614848</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="I20" t="n">
         <v>36.54988312614848</v>
@@ -5785,19 +5785,19 @@
         <v>1529.508467406724</v>
       </c>
       <c r="U20" t="n">
-        <v>1529.508467406724</v>
+        <v>1272.623206648331</v>
       </c>
       <c r="V20" t="n">
-        <v>1529.508467406724</v>
+        <v>922.7856519848121</v>
       </c>
       <c r="W20" t="n">
-        <v>1529.508467406724</v>
+        <v>922.7856519848121</v>
       </c>
       <c r="X20" t="n">
-        <v>1128.865069575677</v>
+        <v>922.7856519848121</v>
       </c>
       <c r="Y20" t="n">
-        <v>727.928396523767</v>
+        <v>922.7856519848121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>576.3233496776602</v>
+        <v>572.6267381900069</v>
       </c>
       <c r="C21" t="n">
-        <v>442.3282784266058</v>
+        <v>438.6316669389526</v>
       </c>
       <c r="D21" t="n">
-        <v>325.4311206459982</v>
+        <v>321.734509158345</v>
       </c>
       <c r="E21" t="n">
-        <v>204.9383046383262</v>
+        <v>201.241693150673</v>
       </c>
       <c r="F21" t="n">
-        <v>95.97842482083078</v>
+        <v>92.28181333317758</v>
       </c>
       <c r="G21" t="n">
-        <v>95.97842482083078</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="H21" t="n">
         <v>36.54988312614848</v>
@@ -5831,25 +5831,25 @@
         <v>55.76161071030094</v>
       </c>
       <c r="J21" t="n">
-        <v>231.9376463670131</v>
+        <v>357.0956169613542</v>
       </c>
       <c r="K21" t="n">
-        <v>362.1500495130042</v>
+        <v>487.3080201073453</v>
       </c>
       <c r="L21" t="n">
-        <v>555.9973239192449</v>
+        <v>681.155294513586</v>
       </c>
       <c r="M21" t="n">
-        <v>1008.302127605332</v>
+        <v>915.2054521701882</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.382397688003</v>
+        <v>1161.285722252858</v>
       </c>
       <c r="O21" t="n">
-        <v>1470.49875207513</v>
+        <v>1377.402076639986</v>
       </c>
       <c r="P21" t="n">
-        <v>1636.121287796637</v>
+        <v>1543.024612361493</v>
       </c>
       <c r="Q21" t="n">
         <v>1726.618292261016</v>
@@ -5858,25 +5858,25 @@
         <v>1827.494156307424</v>
       </c>
       <c r="S21" t="n">
-        <v>1741.272798931616</v>
+        <v>1827.494156307424</v>
       </c>
       <c r="T21" t="n">
-        <v>1676.572727277618</v>
+        <v>1672.876115789965</v>
       </c>
       <c r="U21" t="n">
-        <v>1479.299019081162</v>
+        <v>1475.602407593508</v>
       </c>
       <c r="V21" t="n">
-        <v>1265.587492074195</v>
+        <v>1261.890880586542</v>
       </c>
       <c r="W21" t="n">
-        <v>1052.354323810524</v>
+        <v>1048.657712322871</v>
       </c>
       <c r="X21" t="n">
-        <v>876.0283419494168</v>
+        <v>872.3317304617635</v>
       </c>
       <c r="Y21" t="n">
-        <v>716.6263823132468</v>
+        <v>712.9297708255936</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.9365194807785</v>
+        <v>196.0445278032385</v>
       </c>
       <c r="C22" t="n">
-        <v>282.843147042495</v>
+        <v>196.0445278032385</v>
       </c>
       <c r="D22" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="E22" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="F22" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="H22" t="n">
-        <v>123.3485023654051</v>
+        <v>36.54988312614848</v>
       </c>
       <c r="I22" t="n">
         <v>36.54988312614848</v>
       </c>
       <c r="J22" t="n">
-        <v>53.71375009667567</v>
+        <v>118.7151137280121</v>
       </c>
       <c r="K22" t="n">
-        <v>113.8666436125522</v>
+        <v>385.1482008296027</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9325967009019</v>
+        <v>788.2141539179524</v>
       </c>
       <c r="M22" t="n">
-        <v>957.148134673334</v>
+        <v>883.463342376099</v>
       </c>
       <c r="N22" t="n">
-        <v>1385.349109761844</v>
+        <v>979.630016017024</v>
       </c>
       <c r="O22" t="n">
-        <v>1746.35764656758</v>
+        <v>1359.186202888624</v>
       </c>
       <c r="P22" t="n">
-        <v>1807.60364894524</v>
+        <v>1681.329688739403</v>
       </c>
       <c r="Q22" t="n">
         <v>1827.494156307424</v>
       </c>
       <c r="R22" t="n">
-        <v>1786.399664174673</v>
+        <v>1827.494156307424</v>
       </c>
       <c r="S22" t="n">
-        <v>1786.399664174673</v>
+        <v>1682.523759282023</v>
       </c>
       <c r="T22" t="n">
-        <v>1786.399664174673</v>
+        <v>1682.523759282023</v>
       </c>
       <c r="U22" t="n">
-        <v>1503.655109393089</v>
+        <v>1399.779204500438</v>
       </c>
       <c r="V22" t="n">
-        <v>1229.769364332611</v>
+        <v>1125.89345943996</v>
       </c>
       <c r="W22" t="n">
-        <v>950.699699841485</v>
+        <v>846.8237949488348</v>
       </c>
       <c r="X22" t="n">
-        <v>866.3719244860582</v>
+        <v>608.4799328085181</v>
       </c>
       <c r="Y22" t="n">
-        <v>641.6362258748229</v>
+        <v>383.7442341972828</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>447.0823946721272</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="C23" t="n">
-        <v>447.0823946721272</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="D23" t="n">
-        <v>447.0823946721272</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="E23" t="n">
-        <v>447.0823946721272</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="F23" t="n">
-        <v>447.0823946721272</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="G23" t="n">
-        <v>40.54449784117284</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="H23" t="n">
-        <v>40.54449784117284</v>
+        <v>42.45135505787734</v>
       </c>
       <c r="I23" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J23" t="n">
-        <v>218.9014414622972</v>
+        <v>218.9014414622976</v>
       </c>
       <c r="K23" t="n">
-        <v>403.7372442102754</v>
+        <v>403.7372442102759</v>
       </c>
       <c r="L23" t="n">
-        <v>647.9876153713144</v>
+        <v>647.9876153713149</v>
       </c>
       <c r="M23" t="n">
-        <v>932.5893374609623</v>
+        <v>932.5893374609627</v>
       </c>
       <c r="N23" t="n">
         <v>1223.664805349388</v>
@@ -6019,22 +6019,22 @@
         <v>1941.857266909459</v>
       </c>
       <c r="T23" t="n">
-        <v>1729.239203157942</v>
+        <v>1941.857266909459</v>
       </c>
       <c r="U23" t="n">
-        <v>1472.35394239955</v>
+        <v>1941.857266909459</v>
       </c>
       <c r="V23" t="n">
-        <v>1122.51638773603</v>
+        <v>1592.01971224594</v>
       </c>
       <c r="W23" t="n">
-        <v>1122.51638773603</v>
+        <v>1208.259411381109</v>
       </c>
       <c r="X23" t="n">
-        <v>1122.51638773603</v>
+        <v>807.6160135500611</v>
       </c>
       <c r="Y23" t="n">
-        <v>857.3035743366166</v>
+        <v>406.6793404981512</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>686.1361165654173</v>
+        <v>686.1361165654171</v>
       </c>
       <c r="C24" t="n">
-        <v>552.1410453143629</v>
+        <v>552.1410453143627</v>
       </c>
       <c r="D24" t="n">
-        <v>435.2438875337554</v>
+        <v>435.2438875337551</v>
       </c>
       <c r="E24" t="n">
-        <v>314.7510715260834</v>
+        <v>314.7510715260831</v>
       </c>
       <c r="F24" t="n">
-        <v>205.7911917085879</v>
+        <v>205.7911917085877</v>
       </c>
       <c r="G24" t="n">
         <v>99.97303953585515</v>
       </c>
       <c r="H24" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="I24" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J24" t="n">
-        <v>341.8785040922261</v>
+        <v>98.2101001175929</v>
       </c>
       <c r="K24" t="n">
-        <v>472.0909072382172</v>
+        <v>599.9482609021069</v>
       </c>
       <c r="L24" t="n">
-        <v>665.9381816444579</v>
+        <v>793.7955353083476</v>
       </c>
       <c r="M24" t="n">
-        <v>899.9883393010601</v>
+        <v>1027.84569296495</v>
       </c>
       <c r="N24" t="n">
-        <v>1401.726500085574</v>
+        <v>1273.92596304762</v>
       </c>
       <c r="O24" t="n">
-        <v>1617.842854472701</v>
+        <v>1490.042317434747</v>
       </c>
       <c r="P24" t="n">
-        <v>1783.465390194209</v>
+        <v>1655.664853156255</v>
       </c>
       <c r="Q24" t="n">
-        <v>1926.349028012234</v>
+        <v>2014.318744489215</v>
       </c>
       <c r="R24" t="n">
         <v>2027.224892058642</v>
@@ -6098,7 +6098,7 @@
         <v>1941.003534682834</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.385494165376</v>
+        <v>1786.385494165375</v>
       </c>
       <c r="U24" t="n">
         <v>1589.111785968918</v>
@@ -6110,10 +6110,10 @@
         <v>1162.167090698281</v>
       </c>
       <c r="X24" t="n">
-        <v>985.8411088371739</v>
+        <v>985.8411088371737</v>
       </c>
       <c r="Y24" t="n">
-        <v>826.4391492010039</v>
+        <v>826.4391492010037</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>651.6619126055367</v>
+        <v>305.3950142193518</v>
       </c>
       <c r="C25" t="n">
-        <v>480.5685401672532</v>
+        <v>305.3950142193518</v>
       </c>
       <c r="D25" t="n">
-        <v>480.5685401672532</v>
+        <v>305.3950142193518</v>
       </c>
       <c r="E25" t="n">
-        <v>319.6577250355727</v>
+        <v>305.3950142193518</v>
       </c>
       <c r="F25" t="n">
-        <v>155.026599146164</v>
+        <v>206.8123565902951</v>
       </c>
       <c r="G25" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="H25" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="I25" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J25" t="n">
-        <v>57.70836481170002</v>
+        <v>57.70836481170004</v>
       </c>
       <c r="K25" t="n">
         <v>117.8612583275766</v>
@@ -6156,13 +6156,13 @@
         <v>520.9272114159262</v>
       </c>
       <c r="M25" t="n">
-        <v>861.3164772155012</v>
+        <v>961.1427493883583</v>
       </c>
       <c r="N25" t="n">
-        <v>1289.517452304012</v>
+        <v>1389.343724476869</v>
       </c>
       <c r="O25" t="n">
-        <v>1685.19089884568</v>
+        <v>1785.017171018537</v>
       </c>
       <c r="P25" t="n">
         <v>2007.334384696459</v>
@@ -6171,28 +6171,28 @@
         <v>2027.224892058642</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.130399925892</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.861490602764</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.510844242259</v>
+        <v>1791.874245698137</v>
       </c>
       <c r="U25" t="n">
-        <v>1581.510844242259</v>
+        <v>1509.129690916552</v>
       </c>
       <c r="V25" t="n">
-        <v>1581.510844242259</v>
+        <v>1235.243945856074</v>
       </c>
       <c r="W25" t="n">
-        <v>1302.441179751133</v>
+        <v>956.174281364948</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.097317610816</v>
+        <v>717.8304192246314</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.3616189995811</v>
+        <v>493.0947206133961</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1130.69941419306</v>
+        <v>978.4649754425135</v>
       </c>
       <c r="C26" t="n">
-        <v>720.5748235063298</v>
+        <v>978.4649754425135</v>
       </c>
       <c r="D26" t="n">
-        <v>316.1108935993904</v>
+        <v>978.4649754425135</v>
       </c>
       <c r="E26" t="n">
-        <v>42.45135505787734</v>
+        <v>978.4649754425135</v>
       </c>
       <c r="F26" t="n">
-        <v>42.45135505787734</v>
+        <v>557.434563396201</v>
       </c>
       <c r="G26" t="n">
-        <v>42.45135505787734</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="H26" t="n">
         <v>42.45135505787734</v>
       </c>
       <c r="I26" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J26" t="n">
-        <v>150.1609875022444</v>
+        <v>345.8971085384388</v>
       </c>
       <c r="K26" t="n">
-        <v>334.9967902502227</v>
+        <v>530.7329112864171</v>
       </c>
       <c r="L26" t="n">
-        <v>579.2471614112617</v>
+        <v>774.9832824474561</v>
       </c>
       <c r="M26" t="n">
-        <v>863.8488835009096</v>
+        <v>1059.585004537104</v>
       </c>
       <c r="N26" t="n">
-        <v>1154.924351389335</v>
+        <v>1350.660472425529</v>
       </c>
       <c r="O26" t="n">
-        <v>1424.377880982649</v>
+        <v>1620.114002018843</v>
       </c>
       <c r="P26" t="n">
-        <v>1640.377329114934</v>
+        <v>1836.113450151128</v>
       </c>
       <c r="Q26" t="n">
         <v>1978.810077809085</v>
@@ -6256,22 +6256,22 @@
         <v>1941.857266909459</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.857266909459</v>
+        <v>1729.239203157943</v>
       </c>
       <c r="U26" t="n">
-        <v>1941.857266909459</v>
+        <v>1729.239203157943</v>
       </c>
       <c r="V26" t="n">
-        <v>1941.857266909459</v>
+        <v>1379.401648494423</v>
       </c>
       <c r="W26" t="n">
-        <v>1941.857266909459</v>
+        <v>1379.401648494423</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.857266909459</v>
+        <v>1379.401648494423</v>
       </c>
       <c r="Y26" t="n">
-        <v>1540.920593857549</v>
+        <v>978.4649754425135</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.1361165654173</v>
+        <v>686.1361165654174</v>
       </c>
       <c r="C27" t="n">
-        <v>552.1410453143629</v>
+        <v>552.1410453143632</v>
       </c>
       <c r="D27" t="n">
-        <v>435.2438875337554</v>
+        <v>435.2438875337555</v>
       </c>
       <c r="E27" t="n">
-        <v>314.7510715260834</v>
+        <v>314.7510715260835</v>
       </c>
       <c r="F27" t="n">
-        <v>205.7911917085879</v>
+        <v>205.791191708588</v>
       </c>
       <c r="G27" t="n">
-        <v>99.97303953585515</v>
+        <v>99.97303953585538</v>
       </c>
       <c r="H27" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="I27" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J27" t="n">
-        <v>341.8785040922261</v>
+        <v>98.2101001175929</v>
       </c>
       <c r="K27" t="n">
-        <v>472.0909072382172</v>
+        <v>228.422503263584</v>
       </c>
       <c r="L27" t="n">
-        <v>665.9381816444579</v>
+        <v>422.2697776698247</v>
       </c>
       <c r="M27" t="n">
-        <v>899.9883393010601</v>
+        <v>656.3199353264268</v>
       </c>
       <c r="N27" t="n">
-        <v>1146.06860938373</v>
+        <v>902.400205409097</v>
       </c>
       <c r="O27" t="n">
-        <v>1362.184963770858</v>
+        <v>1118.516559796224</v>
       </c>
       <c r="P27" t="n">
-        <v>1527.807499492365</v>
+        <v>1620.254720580738</v>
       </c>
       <c r="Q27" t="n">
         <v>2014.318744489215</v>
@@ -6338,7 +6338,7 @@
         <v>1786.385494165376</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.111785968918</v>
+        <v>1589.111785968919</v>
       </c>
       <c r="V27" t="n">
         <v>1375.400258961952</v>
@@ -6347,10 +6347,10 @@
         <v>1162.167090698281</v>
       </c>
       <c r="X27" t="n">
-        <v>985.8411088371739</v>
+        <v>985.841108837174</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.4391492010039</v>
+        <v>826.4391492010041</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.814164337874</v>
+        <v>211.6378702794563</v>
       </c>
       <c r="C28" t="n">
-        <v>832.7207918995909</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="D28" t="n">
-        <v>673.2261472225009</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="E28" t="n">
-        <v>512.3153320908203</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="F28" t="n">
-        <v>347.6842062014116</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="G28" t="n">
-        <v>181.4163474522893</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="H28" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="I28" t="n">
-        <v>40.54449784117284</v>
+        <v>40.54449784117285</v>
       </c>
       <c r="J28" t="n">
-        <v>57.70836481170002</v>
+        <v>122.7097284430364</v>
       </c>
       <c r="K28" t="n">
-        <v>117.8612583275766</v>
+        <v>182.862621958913</v>
       </c>
       <c r="L28" t="n">
-        <v>520.9272114159262</v>
+        <v>585.9285750472626</v>
       </c>
       <c r="M28" t="n">
-        <v>961.1427493883583</v>
+        <v>1026.144113019695</v>
       </c>
       <c r="N28" t="n">
-        <v>1389.343724476869</v>
+        <v>1454.345088108205</v>
       </c>
       <c r="O28" t="n">
-        <v>1785.017171018537</v>
+        <v>1850.018534649873</v>
       </c>
       <c r="P28" t="n">
-        <v>2007.334384696459</v>
+        <v>1911.264537027534</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.224892058642</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.130399925892</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="S28" t="n">
-        <v>1986.130399925892</v>
+        <v>1933.467748118747</v>
       </c>
       <c r="T28" t="n">
-        <v>1750.779753565386</v>
+        <v>1698.117101758241</v>
       </c>
       <c r="U28" t="n">
-        <v>1750.779753565386</v>
+        <v>1415.372546976656</v>
       </c>
       <c r="V28" t="n">
-        <v>1750.779753565386</v>
+        <v>1141.486801916178</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.593431483471</v>
+        <v>862.4171374250527</v>
       </c>
       <c r="X28" t="n">
-        <v>1416.249569343154</v>
+        <v>624.073275284736</v>
       </c>
       <c r="Y28" t="n">
-        <v>1191.513870731919</v>
+        <v>399.3375766735007</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1122.51638773603</v>
+        <v>1360.11845163576</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.51638773603</v>
+        <v>1360.11845163576</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.51638773603</v>
+        <v>1360.11845163576</v>
       </c>
       <c r="E29" t="n">
-        <v>870.0196639351441</v>
+        <v>945.7782361526565</v>
       </c>
       <c r="F29" t="n">
-        <v>448.9892518888316</v>
+        <v>524.7478241063441</v>
       </c>
       <c r="G29" t="n">
-        <v>42.45135505787734</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="H29" t="n">
         <v>42.45135505787734</v>
@@ -6463,52 +6463,52 @@
         <v>40.54449784117284</v>
       </c>
       <c r="J29" t="n">
-        <v>218.9014414622972</v>
+        <v>345.8971085384384</v>
       </c>
       <c r="K29" t="n">
-        <v>403.7372442102754</v>
+        <v>530.7329112864167</v>
       </c>
       <c r="L29" t="n">
-        <v>647.9876153713144</v>
+        <v>774.9832824474556</v>
       </c>
       <c r="M29" t="n">
-        <v>932.5893374609623</v>
+        <v>1059.585004537103</v>
       </c>
       <c r="N29" t="n">
-        <v>1223.664805349388</v>
+        <v>1350.660472425529</v>
       </c>
       <c r="O29" t="n">
-        <v>1493.118334942702</v>
+        <v>1620.114002018843</v>
       </c>
       <c r="P29" t="n">
-        <v>1709.117783074987</v>
+        <v>1836.113450151128</v>
       </c>
       <c r="Q29" t="n">
-        <v>1851.814410732944</v>
+        <v>1978.810077809085</v>
       </c>
       <c r="R29" t="n">
         <v>2027.224892058642</v>
       </c>
       <c r="S29" t="n">
-        <v>1941.857266909459</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="T29" t="n">
-        <v>1729.239203157942</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="U29" t="n">
-        <v>1472.35394239955</v>
+        <v>1770.339631300249</v>
       </c>
       <c r="V29" t="n">
-        <v>1122.51638773603</v>
+        <v>1770.339631300249</v>
       </c>
       <c r="W29" t="n">
-        <v>1122.51638773603</v>
+        <v>1770.339631300249</v>
       </c>
       <c r="X29" t="n">
-        <v>1122.51638773603</v>
+        <v>1770.339631300249</v>
       </c>
       <c r="Y29" t="n">
-        <v>1122.51638773603</v>
+        <v>1770.339631300249</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>686.136116565417</v>
       </c>
       <c r="C30" t="n">
-        <v>552.1410453143626</v>
+        <v>552.1410453143627</v>
       </c>
       <c r="D30" t="n">
-        <v>435.243887533755</v>
+        <v>435.2438875337552</v>
       </c>
       <c r="E30" t="n">
-        <v>314.751071526083</v>
+        <v>314.7510715260833</v>
       </c>
       <c r="F30" t="n">
-        <v>205.7911917085876</v>
+        <v>205.7911917085878</v>
       </c>
       <c r="G30" t="n">
-        <v>99.97303953585508</v>
+        <v>99.97303953585515</v>
       </c>
       <c r="H30" t="n">
         <v>40.54449784117284</v>
@@ -6542,25 +6542,25 @@
         <v>40.54449784117284</v>
       </c>
       <c r="J30" t="n">
-        <v>341.8785040922261</v>
+        <v>98.21010011759289</v>
       </c>
       <c r="K30" t="n">
-        <v>472.0909072382172</v>
+        <v>228.422503263584</v>
       </c>
       <c r="L30" t="n">
-        <v>665.9381816444579</v>
+        <v>422.2697776698247</v>
       </c>
       <c r="M30" t="n">
-        <v>899.9883393010601</v>
+        <v>656.3199353264268</v>
       </c>
       <c r="N30" t="n">
-        <v>1146.06860938373</v>
+        <v>902.400205409097</v>
       </c>
       <c r="O30" t="n">
-        <v>1362.184963770858</v>
+        <v>1118.516559796224</v>
       </c>
       <c r="P30" t="n">
-        <v>1527.807499492365</v>
+        <v>1620.254720580738</v>
       </c>
       <c r="Q30" t="n">
         <v>2014.318744489215</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>760.0247664617575</v>
+        <v>537.1798113005456</v>
       </c>
       <c r="C31" t="n">
-        <v>760.0247664617575</v>
+        <v>366.0864388622621</v>
       </c>
       <c r="D31" t="n">
-        <v>760.0247664617575</v>
+        <v>366.0864388622621</v>
       </c>
       <c r="E31" t="n">
-        <v>599.1139513300769</v>
+        <v>205.1756237305816</v>
       </c>
       <c r="F31" t="n">
-        <v>434.4828254406682</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="G31" t="n">
-        <v>268.214966691546</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="H31" t="n">
-        <v>127.3431170804295</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="I31" t="n">
         <v>40.54449784117284</v>
@@ -6624,19 +6624,19 @@
         <v>122.7097284430364</v>
       </c>
       <c r="K31" t="n">
-        <v>236.7273754631677</v>
+        <v>389.1428155446271</v>
       </c>
       <c r="L31" t="n">
-        <v>639.7933285515173</v>
+        <v>555.72446251035</v>
       </c>
       <c r="M31" t="n">
-        <v>735.0425170096639</v>
+        <v>995.9400004827821</v>
       </c>
       <c r="N31" t="n">
-        <v>1163.243492098174</v>
+        <v>1424.140975571293</v>
       </c>
       <c r="O31" t="n">
-        <v>1558.916938639842</v>
+        <v>1819.814422112961</v>
       </c>
       <c r="P31" t="n">
         <v>1881.060424490621</v>
@@ -6645,28 +6645,28 @@
         <v>2027.224892058642</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.130399925892</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.861490602764</v>
+        <v>1857.955982735515</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.510844242259</v>
+        <v>1857.955982735515</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.766289460674</v>
+        <v>1575.21142795393</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.880544400196</v>
+        <v>1301.325682893452</v>
       </c>
       <c r="W31" t="n">
-        <v>760.0247664617575</v>
+        <v>1187.959078446142</v>
       </c>
       <c r="X31" t="n">
-        <v>760.0247664617575</v>
+        <v>949.6152163058252</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.0247664617575</v>
+        <v>724.8795176945899</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>815.4236415111957</v>
+        <v>751.9579607839499</v>
       </c>
       <c r="C32" t="n">
-        <v>405.2990508244658</v>
+        <v>751.9579607839499</v>
       </c>
       <c r="D32" t="n">
-        <v>405.2990508244658</v>
+        <v>751.9579607839499</v>
       </c>
       <c r="E32" t="n">
-        <v>405.2990508244658</v>
+        <v>751.9579607839499</v>
       </c>
       <c r="F32" t="n">
-        <v>40.54449784117285</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="G32" t="n">
-        <v>40.54449784117285</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="H32" t="n">
-        <v>40.54449784117285</v>
+        <v>42.45135505787734</v>
       </c>
       <c r="I32" t="n">
         <v>40.54449784117285</v>
@@ -6727,25 +6727,25 @@
         <v>2027.224892058642</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.224892058642</v>
+        <v>1941.857266909459</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.224892058642</v>
+        <v>1729.239203157943</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.224892058642</v>
+        <v>1472.35394239955</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.224892058642</v>
+        <v>1162.179140448439</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.224892058642</v>
+        <v>1162.179140448439</v>
       </c>
       <c r="X32" t="n">
-        <v>1626.581494227595</v>
+        <v>1162.179140448439</v>
       </c>
       <c r="Y32" t="n">
-        <v>1225.644821175685</v>
+        <v>1162.179140448439</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.136116565417</v>
+        <v>686.1361165654174</v>
       </c>
       <c r="C33" t="n">
-        <v>552.1410453143626</v>
+        <v>552.1410453143632</v>
       </c>
       <c r="D33" t="n">
-        <v>435.243887533755</v>
+        <v>435.2438875337555</v>
       </c>
       <c r="E33" t="n">
-        <v>314.751071526083</v>
+        <v>314.7510715260835</v>
       </c>
       <c r="F33" t="n">
-        <v>205.7911917085876</v>
+        <v>205.791191708588</v>
       </c>
       <c r="G33" t="n">
-        <v>99.97303953585515</v>
+        <v>99.97303953585538</v>
       </c>
       <c r="H33" t="n">
         <v>40.54449784117285</v>
       </c>
       <c r="I33" t="n">
-        <v>40.54449784117285</v>
+        <v>59.7562254253253</v>
       </c>
       <c r="J33" t="n">
-        <v>98.2101001175929</v>
+        <v>361.0902316763786</v>
       </c>
       <c r="K33" t="n">
-        <v>599.9482609021069</v>
+        <v>491.3026348223697</v>
       </c>
       <c r="L33" t="n">
-        <v>793.7955353083476</v>
+        <v>685.1499092286103</v>
       </c>
       <c r="M33" t="n">
-        <v>1027.84569296495</v>
+        <v>919.2000668852126</v>
       </c>
       <c r="N33" t="n">
-        <v>1273.92596304762</v>
+        <v>1165.280336967883</v>
       </c>
       <c r="O33" t="n">
-        <v>1490.042317434747</v>
+        <v>1381.39669135501</v>
       </c>
       <c r="P33" t="n">
-        <v>1655.664853156255</v>
+        <v>1547.019227076517</v>
       </c>
       <c r="Q33" t="n">
-        <v>2014.318744489215</v>
+        <v>1926.349028012234</v>
       </c>
       <c r="R33" t="n">
         <v>2027.224892058642</v>
@@ -6812,7 +6812,7 @@
         <v>1786.385494165376</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.111785968918</v>
+        <v>1589.111785968919</v>
       </c>
       <c r="V33" t="n">
         <v>1375.400258961952</v>
@@ -6821,10 +6821,10 @@
         <v>1162.167090698281</v>
       </c>
       <c r="X33" t="n">
-        <v>985.8411088371736</v>
+        <v>985.841108837174</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.4391492010036</v>
+        <v>826.4391492010041</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>499.6511684471071</v>
+        <v>493.0947206133961</v>
       </c>
       <c r="C34" t="n">
-        <v>328.5577960088236</v>
+        <v>493.0947206133961</v>
       </c>
       <c r="D34" t="n">
-        <v>328.5577960088236</v>
+        <v>333.6000759363062</v>
       </c>
       <c r="E34" t="n">
-        <v>167.6469808771431</v>
+        <v>333.6000759363062</v>
       </c>
       <c r="F34" t="n">
-        <v>40.54449784117285</v>
+        <v>333.6000759363062</v>
       </c>
       <c r="G34" t="n">
-        <v>40.54449784117285</v>
+        <v>268.214966691546</v>
       </c>
       <c r="H34" t="n">
-        <v>40.54449784117285</v>
+        <v>127.3431170804295</v>
       </c>
       <c r="I34" t="n">
         <v>40.54449784117285</v>
       </c>
       <c r="J34" t="n">
-        <v>57.70836481170004</v>
+        <v>122.7097284430364</v>
       </c>
       <c r="K34" t="n">
-        <v>117.8612583275766</v>
+        <v>389.1428155446271</v>
       </c>
       <c r="L34" t="n">
-        <v>520.9272114159262</v>
+        <v>792.2087686329767</v>
       </c>
       <c r="M34" t="n">
-        <v>961.1427493883583</v>
+        <v>1232.424306605409</v>
       </c>
       <c r="N34" t="n">
-        <v>1389.343724476869</v>
+        <v>1660.625281693919</v>
       </c>
       <c r="O34" t="n">
-        <v>1785.017171018537</v>
+        <v>1741.223968816847</v>
       </c>
       <c r="P34" t="n">
-        <v>2007.334384696459</v>
+        <v>1881.060424490621</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.224892058642</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.130399925892</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.130399925892</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="T34" t="n">
-        <v>1986.130399925892</v>
+        <v>1791.874245698137</v>
       </c>
       <c r="U34" t="n">
-        <v>1703.385845144307</v>
+        <v>1509.129690916552</v>
       </c>
       <c r="V34" t="n">
-        <v>1429.500100083829</v>
+        <v>1235.243945856074</v>
       </c>
       <c r="W34" t="n">
-        <v>1150.430435592703</v>
+        <v>956.174281364948</v>
       </c>
       <c r="X34" t="n">
-        <v>912.0865734523868</v>
+        <v>717.8304192246314</v>
       </c>
       <c r="Y34" t="n">
-        <v>687.3508748411515</v>
+        <v>493.0947206133961</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>861.2555004479201</v>
+        <v>534.6143247975742</v>
       </c>
       <c r="C35" t="n">
-        <v>861.2555004479201</v>
+        <v>534.6143247975742</v>
       </c>
       <c r="D35" t="n">
-        <v>456.7915705409806</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="E35" t="n">
-        <v>42.45135505787734</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="F35" t="n">
-        <v>42.45135505787734</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="G35" t="n">
-        <v>42.45135505787734</v>
+        <v>330.9275487376375</v>
       </c>
       <c r="H35" t="n">
         <v>42.45135505787734</v>
       </c>
       <c r="I35" t="n">
-        <v>40.54449784117285</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="J35" t="n">
-        <v>150.1609875022445</v>
+        <v>345.8971085384384</v>
       </c>
       <c r="K35" t="n">
-        <v>334.9967902502227</v>
+        <v>530.7329112864167</v>
       </c>
       <c r="L35" t="n">
-        <v>579.2471614112617</v>
+        <v>774.9832824474556</v>
       </c>
       <c r="M35" t="n">
-        <v>863.8488835009096</v>
+        <v>1059.585004537103</v>
       </c>
       <c r="N35" t="n">
-        <v>1154.924351389335</v>
+        <v>1350.660472425529</v>
       </c>
       <c r="O35" t="n">
-        <v>1424.377880982649</v>
+        <v>1620.114002018843</v>
       </c>
       <c r="P35" t="n">
-        <v>1640.377329114934</v>
+        <v>1836.113450151128</v>
       </c>
       <c r="Q35" t="n">
-        <v>1851.814410732944</v>
+        <v>1978.810077809085</v>
       </c>
       <c r="R35" t="n">
         <v>2027.224892058642</v>
       </c>
       <c r="S35" t="n">
-        <v>2027.224892058642</v>
+        <v>1941.857266909459</v>
       </c>
       <c r="T35" t="n">
-        <v>2027.224892058642</v>
+        <v>1729.239203157942</v>
       </c>
       <c r="U35" t="n">
-        <v>1770.339631300249</v>
+        <v>1729.239203157942</v>
       </c>
       <c r="V35" t="n">
-        <v>1770.339631300249</v>
+        <v>1729.239203157942</v>
       </c>
       <c r="W35" t="n">
-        <v>1770.339631300249</v>
+        <v>1345.478902293111</v>
       </c>
       <c r="X35" t="n">
-        <v>1369.696233469202</v>
+        <v>944.8355044620637</v>
       </c>
       <c r="Y35" t="n">
-        <v>968.7595604172922</v>
+        <v>944.8355044620637</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>686.1361165654173</v>
+        <v>686.136116565417</v>
       </c>
       <c r="C36" t="n">
-        <v>552.1410453143631</v>
+        <v>552.1410453143627</v>
       </c>
       <c r="D36" t="n">
-        <v>435.2438875337555</v>
+        <v>435.243887533755</v>
       </c>
       <c r="E36" t="n">
-        <v>314.7510715260835</v>
+        <v>314.751071526083</v>
       </c>
       <c r="F36" t="n">
-        <v>205.791191708588</v>
+        <v>205.7911917085876</v>
       </c>
       <c r="G36" t="n">
-        <v>99.97303953585538</v>
+        <v>99.97303953585515</v>
       </c>
       <c r="H36" t="n">
-        <v>40.54449784117285</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="I36" t="n">
-        <v>40.54449784117285</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="J36" t="n">
-        <v>98.2101001175929</v>
+        <v>243.9528711439428</v>
       </c>
       <c r="K36" t="n">
-        <v>599.9482609021069</v>
+        <v>374.1652742899339</v>
       </c>
       <c r="L36" t="n">
-        <v>793.7955353083476</v>
+        <v>568.0125486961746</v>
       </c>
       <c r="M36" t="n">
-        <v>1027.84569296495</v>
+        <v>802.0627063527768</v>
       </c>
       <c r="N36" t="n">
-        <v>1273.92596304762</v>
+        <v>1048.142976435447</v>
       </c>
       <c r="O36" t="n">
-        <v>1490.042317434747</v>
+        <v>1264.259330822574</v>
       </c>
       <c r="P36" t="n">
-        <v>1655.664853156255</v>
+        <v>1429.881866544082</v>
       </c>
       <c r="Q36" t="n">
-        <v>2014.318744489215</v>
+        <v>1926.349028012234</v>
       </c>
       <c r="R36" t="n">
         <v>2027.224892058642</v>
@@ -7058,10 +7058,10 @@
         <v>1162.167090698281</v>
       </c>
       <c r="X36" t="n">
-        <v>985.8411088371739</v>
+        <v>985.8411088371736</v>
       </c>
       <c r="Y36" t="n">
-        <v>826.4391492010039</v>
+        <v>826.4391492010036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1090.612783577131</v>
+        <v>925.9816576877222</v>
       </c>
       <c r="C37" t="n">
-        <v>919.5194111388475</v>
+        <v>754.8882852494387</v>
       </c>
       <c r="D37" t="n">
-        <v>760.0247664617575</v>
+        <v>595.3936405723487</v>
       </c>
       <c r="E37" t="n">
-        <v>599.1139513300769</v>
+        <v>434.4828254406682</v>
       </c>
       <c r="F37" t="n">
         <v>434.4828254406682</v>
@@ -7092,55 +7092,55 @@
         <v>127.3431170804295</v>
       </c>
       <c r="I37" t="n">
-        <v>40.54449784117285</v>
+        <v>40.54449784117284</v>
       </c>
       <c r="J37" t="n">
-        <v>122.7097284430364</v>
+        <v>57.70836481170002</v>
       </c>
       <c r="K37" t="n">
-        <v>389.1428155446271</v>
+        <v>117.8612583275766</v>
       </c>
       <c r="L37" t="n">
-        <v>792.2087686329767</v>
+        <v>520.9272114159262</v>
       </c>
       <c r="M37" t="n">
-        <v>1232.424306605409</v>
+        <v>961.1427493883583</v>
       </c>
       <c r="N37" t="n">
-        <v>1660.625281693919</v>
+        <v>1389.343724476869</v>
       </c>
       <c r="O37" t="n">
-        <v>1741.223968816847</v>
+        <v>1785.017171018537</v>
       </c>
       <c r="P37" t="n">
-        <v>1881.060424490621</v>
+        <v>2007.334384696459</v>
       </c>
       <c r="Q37" t="n">
         <v>2027.224892058642</v>
       </c>
       <c r="R37" t="n">
-        <v>2027.224892058642</v>
+        <v>1986.130399925892</v>
       </c>
       <c r="S37" t="n">
-        <v>2027.224892058642</v>
+        <v>1816.861490602764</v>
       </c>
       <c r="T37" t="n">
-        <v>2027.224892058642</v>
+        <v>1625.910971282561</v>
       </c>
       <c r="U37" t="n">
-        <v>2020.461715213853</v>
+        <v>1625.910971282561</v>
       </c>
       <c r="V37" t="n">
-        <v>2020.461715213853</v>
+        <v>1352.025226222083</v>
       </c>
       <c r="W37" t="n">
-        <v>1741.392050722727</v>
+        <v>1352.025226222083</v>
       </c>
       <c r="X37" t="n">
-        <v>1503.048188582411</v>
+        <v>1113.681364081767</v>
       </c>
       <c r="Y37" t="n">
-        <v>1278.312489971175</v>
+        <v>1113.681364081767</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>461.5749098874853</v>
+        <v>1071.41726934764</v>
       </c>
       <c r="C38" t="n">
-        <v>461.5749098874853</v>
+        <v>661.2926786609099</v>
       </c>
       <c r="D38" t="n">
-        <v>461.5749098874853</v>
+        <v>256.8287487539704</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5749098874853</v>
+        <v>256.8287487539704</v>
       </c>
       <c r="F38" t="n">
-        <v>40.54449784117284</v>
+        <v>42.45135505787734</v>
       </c>
       <c r="G38" t="n">
-        <v>40.54449784117284</v>
+        <v>42.45135505787734</v>
       </c>
       <c r="H38" t="n">
-        <v>40.54449784117284</v>
+        <v>42.45135505787734</v>
       </c>
       <c r="I38" t="n">
         <v>40.54449784117284</v>
       </c>
       <c r="J38" t="n">
-        <v>218.9014414622972</v>
+        <v>150.1609875022444</v>
       </c>
       <c r="K38" t="n">
-        <v>403.7372442102754</v>
+        <v>530.7329112864167</v>
       </c>
       <c r="L38" t="n">
-        <v>647.9876153713144</v>
+        <v>774.9832824474556</v>
       </c>
       <c r="M38" t="n">
-        <v>932.5893374609623</v>
+        <v>1059.585004537103</v>
       </c>
       <c r="N38" t="n">
-        <v>1223.664805349388</v>
+        <v>1350.660472425529</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.118334942702</v>
+        <v>1620.114002018843</v>
       </c>
       <c r="P38" t="n">
-        <v>1709.117783074986</v>
+        <v>1836.113450151128</v>
       </c>
       <c r="Q38" t="n">
-        <v>1851.814410732944</v>
+        <v>1978.810077809085</v>
       </c>
       <c r="R38" t="n">
         <v>2027.224892058642</v>
@@ -7204,22 +7204,22 @@
         <v>1941.857266909459</v>
       </c>
       <c r="T38" t="n">
-        <v>1852.994699226139</v>
+        <v>1729.239203157942</v>
       </c>
       <c r="U38" t="n">
-        <v>1596.109438467746</v>
+        <v>1472.35394239955</v>
       </c>
       <c r="V38" t="n">
-        <v>1246.271883804227</v>
+        <v>1472.35394239955</v>
       </c>
       <c r="W38" t="n">
-        <v>862.5115829393952</v>
+        <v>1472.35394239955</v>
       </c>
       <c r="X38" t="n">
-        <v>862.5115829393952</v>
+        <v>1472.35394239955</v>
       </c>
       <c r="Y38" t="n">
-        <v>461.5749098874853</v>
+        <v>1071.41726934764</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>205.7911917085876</v>
       </c>
       <c r="G39" t="n">
-        <v>99.97303953585508</v>
+        <v>99.97303953585515</v>
       </c>
       <c r="H39" t="n">
         <v>40.54449784117284</v>
       </c>
       <c r="I39" t="n">
-        <v>40.54449784117284</v>
+        <v>59.7562254253253</v>
       </c>
       <c r="J39" t="n">
-        <v>341.8785040922261</v>
+        <v>243.9528711439428</v>
       </c>
       <c r="K39" t="n">
-        <v>472.0909072382172</v>
+        <v>374.1652742899339</v>
       </c>
       <c r="L39" t="n">
-        <v>665.9381816444579</v>
+        <v>568.0125486961746</v>
       </c>
       <c r="M39" t="n">
-        <v>899.9883393010601</v>
+        <v>802.0627063527768</v>
       </c>
       <c r="N39" t="n">
-        <v>1146.06860938373</v>
+        <v>1048.142976435447</v>
       </c>
       <c r="O39" t="n">
-        <v>1362.184963770858</v>
+        <v>1264.259330822574</v>
       </c>
       <c r="P39" t="n">
-        <v>1527.807499492365</v>
+        <v>1429.881866544082</v>
       </c>
       <c r="Q39" t="n">
-        <v>2014.318744489215</v>
+        <v>1926.349028012234</v>
       </c>
       <c r="R39" t="n">
         <v>2027.224892058642</v>
@@ -7283,7 +7283,7 @@
         <v>1941.003534682834</v>
       </c>
       <c r="T39" t="n">
-        <v>1786.385494165375</v>
+        <v>1786.385494165376</v>
       </c>
       <c r="U39" t="n">
         <v>1589.111785968918</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.9381271567938</v>
+        <v>1003.814164337874</v>
       </c>
       <c r="C40" t="n">
-        <v>530.9381271567938</v>
+        <v>832.7207918995909</v>
       </c>
       <c r="D40" t="n">
-        <v>371.4434824797038</v>
+        <v>673.2261472225009</v>
       </c>
       <c r="E40" t="n">
-        <v>371.4434824797038</v>
+        <v>512.3153320908203</v>
       </c>
       <c r="F40" t="n">
-        <v>206.8123565902951</v>
+        <v>347.6842062014116</v>
       </c>
       <c r="G40" t="n">
-        <v>40.54449784117284</v>
+        <v>181.4163474522893</v>
       </c>
       <c r="H40" t="n">
         <v>40.54449784117284</v>
@@ -7350,7 +7350,7 @@
         <v>1785.017171018537</v>
       </c>
       <c r="P40" t="n">
-        <v>2007.334384696458</v>
+        <v>2007.334384696459</v>
       </c>
       <c r="Q40" t="n">
         <v>2027.224892058642</v>
@@ -7359,25 +7359,25 @@
         <v>2027.224892058642</v>
       </c>
       <c r="S40" t="n">
-        <v>1857.955982735515</v>
+        <v>2027.224892058642</v>
       </c>
       <c r="T40" t="n">
-        <v>1779.073496495262</v>
+        <v>1791.874245698136</v>
       </c>
       <c r="U40" t="n">
-        <v>1496.328941713677</v>
+        <v>1791.874245698136</v>
       </c>
       <c r="V40" t="n">
-        <v>1222.443196653199</v>
+        <v>1791.874245698136</v>
       </c>
       <c r="W40" t="n">
-        <v>943.3735321620735</v>
+        <v>1654.593431483471</v>
       </c>
       <c r="X40" t="n">
-        <v>943.3735321620735</v>
+        <v>1416.249569343154</v>
       </c>
       <c r="Y40" t="n">
-        <v>718.6378335508382</v>
+        <v>1191.513870731919</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.5517098640423</v>
+        <v>1204.654912891418</v>
       </c>
       <c r="C41" t="n">
-        <v>847.5517098640423</v>
+        <v>794.5303222046876</v>
       </c>
       <c r="D41" t="n">
-        <v>443.0877799571028</v>
+        <v>794.5303222046876</v>
       </c>
       <c r="E41" t="n">
-        <v>443.0877799571028</v>
+        <v>380.1901067215844</v>
       </c>
       <c r="F41" t="n">
-        <v>443.0877799571028</v>
+        <v>380.1901067215844</v>
       </c>
       <c r="G41" t="n">
-        <v>36.54988312614847</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="H41" t="n">
-        <v>36.54988312614847</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="I41" t="n">
         <v>36.54988312614847</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1663727872201</v>
+        <v>146.1663727872198</v>
       </c>
       <c r="K41" t="n">
-        <v>331.0021755351984</v>
+        <v>331.002175535198</v>
       </c>
       <c r="L41" t="n">
-        <v>575.2525466962372</v>
+        <v>575.252546696237</v>
       </c>
       <c r="M41" t="n">
         <v>859.8542687858849</v>
@@ -7432,7 +7432,7 @@
         <v>1636.382714399909</v>
       </c>
       <c r="Q41" t="n">
-        <v>1779.079342057867</v>
+        <v>1779.079342057866</v>
       </c>
       <c r="R41" t="n">
         <v>1827.494156307424</v>
@@ -7441,22 +7441,22 @@
         <v>1827.494156307424</v>
       </c>
       <c r="T41" t="n">
-        <v>1649.131780747</v>
+        <v>1614.876092555907</v>
       </c>
       <c r="U41" t="n">
-        <v>1649.131780747</v>
+        <v>1614.876092555907</v>
       </c>
       <c r="V41" t="n">
-        <v>1649.131780747</v>
+        <v>1614.876092555907</v>
       </c>
       <c r="W41" t="n">
-        <v>1649.131780747</v>
+        <v>1614.876092555907</v>
       </c>
       <c r="X41" t="n">
-        <v>1248.488382915952</v>
+        <v>1614.876092555907</v>
       </c>
       <c r="Y41" t="n">
-        <v>847.5517098640423</v>
+        <v>1614.876092555907</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>36.54988312614847</v>
       </c>
       <c r="I42" t="n">
-        <v>36.54988312614847</v>
+        <v>55.76161071030093</v>
       </c>
       <c r="J42" t="n">
-        <v>337.8838893772017</v>
+        <v>113.427212986721</v>
       </c>
       <c r="K42" t="n">
-        <v>468.0962925231929</v>
+        <v>306.5666127977611</v>
       </c>
       <c r="L42" t="n">
-        <v>661.9435669294335</v>
+        <v>500.4138872040018</v>
       </c>
       <c r="M42" t="n">
-        <v>895.9937245860357</v>
+        <v>734.464044860604</v>
       </c>
       <c r="N42" t="n">
-        <v>1142.073994668706</v>
+        <v>980.5443149432741</v>
       </c>
       <c r="O42" t="n">
-        <v>1358.190349055833</v>
+        <v>1196.660669330402</v>
       </c>
       <c r="P42" t="n">
-        <v>1523.812884777341</v>
+        <v>1362.283205051909</v>
       </c>
       <c r="Q42" t="n">
         <v>1814.588008737996</v>
@@ -7517,10 +7517,10 @@
         <v>1827.494156307424</v>
       </c>
       <c r="S42" t="n">
-        <v>1741.272798931616</v>
+        <v>1771.762226100395</v>
       </c>
       <c r="T42" t="n">
-        <v>1586.654758414157</v>
+        <v>1617.144185582936</v>
       </c>
       <c r="U42" t="n">
         <v>1419.870477386479</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>856.5507325379513</v>
+        <v>1086.618168862107</v>
       </c>
       <c r="C43" t="n">
-        <v>685.4573600996678</v>
+        <v>915.5247964238231</v>
       </c>
       <c r="D43" t="n">
-        <v>525.9627154225777</v>
+        <v>756.0301517467331</v>
       </c>
       <c r="E43" t="n">
-        <v>365.0519002908972</v>
+        <v>595.1193366150526</v>
       </c>
       <c r="F43" t="n">
-        <v>200.4207744014885</v>
+        <v>430.4882107256439</v>
       </c>
       <c r="G43" t="n">
-        <v>36.54988312614847</v>
+        <v>264.2203519765216</v>
       </c>
       <c r="H43" t="n">
-        <v>36.54988312614847</v>
+        <v>123.3485023654051</v>
       </c>
       <c r="I43" t="n">
         <v>36.54988312614847</v>
       </c>
       <c r="J43" t="n">
-        <v>53.71375009667565</v>
+        <v>90.18565833520972</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8666436125522</v>
+        <v>150.3385518510863</v>
       </c>
       <c r="L43" t="n">
-        <v>482.2676869649687</v>
+        <v>553.4045049394359</v>
       </c>
       <c r="M43" t="n">
-        <v>922.4832249374008</v>
+        <v>993.620042911868</v>
       </c>
       <c r="N43" t="n">
-        <v>1350.684200025911</v>
+        <v>1089.786716552793</v>
       </c>
       <c r="O43" t="n">
-        <v>1746.357646567579</v>
+        <v>1485.460163094461</v>
       </c>
       <c r="P43" t="n">
         <v>1807.60364894524</v>
@@ -7593,28 +7593,28 @@
         <v>1827.494156307424</v>
       </c>
       <c r="R43" t="n">
-        <v>1786.399664174673</v>
+        <v>1827.494156307424</v>
       </c>
       <c r="S43" t="n">
-        <v>1786.399664174673</v>
+        <v>1737.397436007703</v>
       </c>
       <c r="T43" t="n">
-        <v>1786.399664174673</v>
+        <v>1737.397436007703</v>
       </c>
       <c r="U43" t="n">
-        <v>1786.399664174673</v>
+        <v>1737.397436007703</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.399664174673</v>
+        <v>1737.397436007703</v>
       </c>
       <c r="W43" t="n">
-        <v>1507.329999683547</v>
+        <v>1737.397436007703</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.986137543231</v>
+        <v>1499.053573867386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1044.250438931996</v>
+        <v>1274.317875256151</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1282.045101342294</v>
+        <v>888.8629057834996</v>
       </c>
       <c r="C44" t="n">
-        <v>871.9205106555642</v>
+        <v>888.8629057834996</v>
       </c>
       <c r="D44" t="n">
-        <v>871.9205106555642</v>
+        <v>888.8629057834996</v>
       </c>
       <c r="E44" t="n">
-        <v>457.5802951724609</v>
+        <v>866.0250492201197</v>
       </c>
       <c r="F44" t="n">
-        <v>36.54988312614847</v>
+        <v>444.9946371738073</v>
       </c>
       <c r="G44" t="n">
-        <v>36.54988312614847</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="H44" t="n">
-        <v>36.54988312614847</v>
+        <v>38.45674034285297</v>
       </c>
       <c r="I44" t="n">
         <v>36.54988312614847</v>
@@ -7651,49 +7651,49 @@
         <v>146.1663727872201</v>
       </c>
       <c r="K44" t="n">
-        <v>331.0021755351991</v>
+        <v>331.0021755351984</v>
       </c>
       <c r="L44" t="n">
-        <v>575.2525466962377</v>
+        <v>575.2525466962375</v>
       </c>
       <c r="M44" t="n">
-        <v>859.8542687858856</v>
+        <v>859.8542687858851</v>
       </c>
       <c r="N44" t="n">
         <v>1150.929736674311</v>
       </c>
       <c r="O44" t="n">
-        <v>1420.383266267625</v>
+        <v>1420.383266267624</v>
       </c>
       <c r="P44" t="n">
-        <v>1636.38271439991</v>
+        <v>1636.382714399909</v>
       </c>
       <c r="Q44" t="n">
-        <v>1779.079342057867</v>
+        <v>1779.079342057866</v>
       </c>
       <c r="R44" t="n">
         <v>1827.494156307424</v>
       </c>
       <c r="S44" t="n">
-        <v>1742.126531158241</v>
+        <v>1742.12653115824</v>
       </c>
       <c r="T44" t="n">
-        <v>1692.266281006783</v>
+        <v>1529.508467406724</v>
       </c>
       <c r="U44" t="n">
-        <v>1692.266281006783</v>
+        <v>1272.623206648331</v>
       </c>
       <c r="V44" t="n">
-        <v>1692.266281006783</v>
+        <v>1272.623206648331</v>
       </c>
       <c r="W44" t="n">
-        <v>1692.266281006783</v>
+        <v>888.8629057834996</v>
       </c>
       <c r="X44" t="n">
-        <v>1692.266281006783</v>
+        <v>888.8629057834996</v>
       </c>
       <c r="Y44" t="n">
-        <v>1692.266281006783</v>
+        <v>888.8629057834996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>36.54988312614847</v>
       </c>
       <c r="I45" t="n">
-        <v>55.76161071030093</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="J45" t="n">
-        <v>357.0956169613542</v>
+        <v>94.21548540256852</v>
       </c>
       <c r="K45" t="n">
-        <v>487.3080201073453</v>
+        <v>224.4278885485596</v>
       </c>
       <c r="L45" t="n">
-        <v>681.155294513586</v>
+        <v>418.2751629548003</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2054521701882</v>
+        <v>652.3253206114025</v>
       </c>
       <c r="N45" t="n">
-        <v>1161.285722252858</v>
+        <v>898.4055906940728</v>
       </c>
       <c r="O45" t="n">
-        <v>1377.402076639986</v>
+        <v>1196.660669330402</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.024612361493</v>
+        <v>1362.283205051909</v>
       </c>
       <c r="Q45" t="n">
-        <v>1726.618292261015</v>
+        <v>1814.588008737996</v>
       </c>
       <c r="R45" t="n">
         <v>1827.494156307424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>828.7261771845665</v>
+        <v>372.2743814538407</v>
       </c>
       <c r="C46" t="n">
-        <v>828.7261771845665</v>
+        <v>201.1810090155572</v>
       </c>
       <c r="D46" t="n">
-        <v>669.2315325074765</v>
+        <v>201.1810090155572</v>
       </c>
       <c r="E46" t="n">
-        <v>508.320717375796</v>
+        <v>201.1810090155572</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6895914863873</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="G46" t="n">
-        <v>177.421732737265</v>
+        <v>36.54988312614847</v>
       </c>
       <c r="H46" t="n">
         <v>36.54988312614847</v>
@@ -7821,37 +7821,37 @@
         <v>979.630016017024</v>
       </c>
       <c r="O46" t="n">
-        <v>1375.303462558692</v>
+        <v>1359.186202888624</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.446948409471</v>
+        <v>1681.329688739403</v>
       </c>
       <c r="Q46" t="n">
         <v>1827.494156307424</v>
       </c>
       <c r="R46" t="n">
-        <v>1786.399664174673</v>
+        <v>1827.494156307424</v>
       </c>
       <c r="S46" t="n">
-        <v>1786.399664174673</v>
+        <v>1658.225246984296</v>
       </c>
       <c r="T46" t="n">
-        <v>1664.426141517755</v>
+        <v>1422.87460062379</v>
       </c>
       <c r="U46" t="n">
-        <v>1381.68158673617</v>
+        <v>1422.87460062379</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.795841675692</v>
+        <v>1148.988855563312</v>
       </c>
       <c r="W46" t="n">
-        <v>828.7261771845665</v>
+        <v>1023.053648599437</v>
       </c>
       <c r="X46" t="n">
-        <v>828.7261771845665</v>
+        <v>784.7097864591204</v>
       </c>
       <c r="Y46" t="n">
-        <v>828.7261771845665</v>
+        <v>559.9740878478851</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>3.377220003982458</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>56.41146330509136</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>302.5411642895689</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8850,22 +8850,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>63.22310751915754</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>322.2474521419615</v>
+        <v>322.2474521419614</v>
       </c>
       <c r="N13" t="n">
-        <v>321.0468295500991</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>114.4958750624194</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>3.377220003982458</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>56.4114633050913</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.02322487503596</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>9.699208953825888</v>
+        <v>202.9066067691527</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>0.3596729954999418</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>202.3011308043209</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>359.5725323171004</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>282.1355570697882</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,7 +9336,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>283.2422724068762</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7075084649415</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>220.4592384136214</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.03704589408488</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>283.2422724068766</v>
+        <v>301.9772724734069</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.43480197985124</v>
+        <v>69.4348019798517</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0.3596729954999418</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>375.278543069215</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>258.2402936382259</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.91579126630967</v>
+        <v>270.8655422914971</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>247.6162397388166</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>162.698193232587</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>197.7132535719135</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>197.7132535719133</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0.3596729954999418</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>339.5107323868754</v>
       </c>
       <c r="Q27" t="n">
-        <v>400.0143843762339</v>
+        <v>306.633352973837</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>162.6981932325868</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>97.04025017063114</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.43480197985124</v>
+        <v>197.713253571913</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0.3596729954999418</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>339.5107323868752</v>
       </c>
       <c r="Q30" t="n">
-        <v>400.0143843762339</v>
+        <v>306.6333529738367</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>54.40884192348962</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>78.27758092161247</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3596729954999418</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>375.278543069215</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.8655422914971</v>
+        <v>291.7502994659982</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10521,13 +10521,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>162.698193232587</v>
+        <v>79.38429625870117</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>197.713253571913</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.43480197985161</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0.3596729954999418</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>147.2149202286363</v>
       </c>
       <c r="K36" t="n">
-        <v>375.2785430692149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.8655422914971</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>79.38429625870117</v>
+        <v>162.6981932325868</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.43480197985124</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>197.7132535719131</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3596729954999418</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>127.8091347900984</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>400.0143843762337</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>162.6981932325866</v>
+        <v>162.6981932325868</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3596729954999418</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>63.56262289398887</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>202.3011308043206</v>
+        <v>365.4624234562717</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>36.84031135205461</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>282.1355570697878</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0.3596729954999418</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.96840833252665</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.03704589408466</v>
+        <v>365.4624234562717</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>301.9772724734064</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>111.2693944805749</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>48.21324271822374</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>9.879252786798247</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6363228662099</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>287.2689997357243</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.24665541643247</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2089395171078</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3295125510941</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>281.2460687979303</v>
       </c>
     </row>
     <row r="12">
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.8476140545637</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.68070704368179</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.98708158305921</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>31.09289833542897</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>178.904170299158</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>109.8353893485993</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1164109798385</v>
       </c>
       <c r="I13" t="n">
         <v>88.14029541175989</v>
@@ -23466,16 +23466,16 @@
         <v>43.98735315361605</v>
       </c>
       <c r="S13" t="n">
-        <v>168.8567289220076</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.311088298201</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9211170857005</v>
+        <v>236.7205094344268</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6363228662099</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>85.53162495764661</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.202881044483348</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.24665541643247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.2089395171078</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>237.9879626992345</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>31.09289833542913</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.8476140545637</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.68070704368179</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>86.98708158305921</v>
+        <v>41.74672037540213</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.4251245327676</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3067371278844</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>125.6734646904997</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23667,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>40.07505343124422</v>
+        <v>164.6786574470417</v>
       </c>
       <c r="H16" t="n">
         <v>140.1164109798385</v>
@@ -23703,10 +23703,10 @@
         <v>43.98735315361605</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.8567289220076</v>
       </c>
       <c r="T16" t="n">
-        <v>233.311088298201</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.51394889769135</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>305.2771990650832</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>250.2275864324371</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>30.18453289709148</v>
       </c>
       <c r="T18" t="n">
-        <v>30.18453289709102</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.93063304686405</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>40.68354721142292</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>99.15296884133146</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9171092337691</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>95.94065071536272</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127.6775843840649</v>
+        <v>218.6972949479123</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.4725178626447</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3164081508089</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7599706510052</v>
+        <v>49.58535974604639</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.83425627773548</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.35914380204984</v>
       </c>
       <c r="T21" t="n">
-        <v>89.01878917482647</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>139.4631311150053</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.93063304686405</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S22" t="n">
-        <v>167.576220229896</v>
+        <v>24.05552717474936</v>
       </c>
       <c r="T22" t="n">
         <v>232.9971398969008</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.475925917041</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>331.124694024936</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24220,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4725178626447</v>
       </c>
       <c r="H23" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3164081508089</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>134.3666210559713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>65.38798357774857</v>
       </c>
       <c r="G25" t="n">
-        <v>51.26789986968984</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.4631311150053</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.576220229896</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9171092337691</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>139.2738701721744</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4725178626447</v>
+        <v>178.2305733506668</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3164081508089</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I28" t="n">
         <v>85.93063304686405</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S28" t="n">
-        <v>167.576220229896</v>
+        <v>74.75664772939967</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9171092337691</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>181.0545089851185</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24688,16 +24688,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>160.2250567653949</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>210.5904452476252</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.51394889769135</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.4918831140013</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.93063304686405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.9971398969008</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>14.07174768716055</v>
+        <v>164.0460294433772</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24928,16 +24928,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>55.71310047238933</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.4725178626447</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.51394889769135</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3164081508089</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>39.26612518528469</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>37.15335642490409</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.605180161631</v>
+        <v>99.87392200931845</v>
       </c>
       <c r="H34" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.93063304686405</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S34" t="n">
         <v>167.576220229896</v>
       </c>
       <c r="T34" t="n">
-        <v>232.9971398969008</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>299.6899484981662</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>198.7693823085327</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25171,7 +25171,7 @@
         <v>402.4725178626447</v>
       </c>
       <c r="H35" t="n">
-        <v>285.5914317429625</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.51394889769135</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.4918831140013</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3164081508089</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.68354721142292</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.576220229896</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9971398969008</v>
+        <v>43.95612576989956</v>
       </c>
       <c r="U37" t="n">
-        <v>273.2215641574274</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>204.5864881667171</v>
       </c>
       <c r="G38" t="n">
         <v>402.4725178626447</v>
@@ -25411,7 +25411,7 @@
         <v>285.5914317429625</v>
       </c>
       <c r="I38" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>122.5179411075146</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>85.93063304686405</v>
@@ -25599,22 +25599,22 @@
         <v>40.68354721142292</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.576220229896</v>
       </c>
       <c r="T40" t="n">
-        <v>154.9034785190508</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3709617736955</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>64.15648514770072</v>
       </c>
       <c r="H41" t="n">
         <v>285.5914317429625</v>
       </c>
       <c r="I41" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>84.51394889769135</v>
       </c>
       <c r="T41" t="n">
-        <v>33.91313130918155</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3164081508089</v>
@@ -25693,10 +25693,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.18453289709148</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>30.18453289709154</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.372997799044441</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.4631311150053</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.93063304686405</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S43" t="n">
-        <v>167.576220229896</v>
+        <v>78.3804671331724</v>
       </c>
       <c r="T43" t="n">
         <v>232.9971398969008</v>
@@ -25848,7 +25848,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>387.5873353305262</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4725178626447</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.5914317429625</v>
       </c>
       <c r="I44" t="n">
-        <v>1.887788644537451</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>161.1302354640586</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3164081508089</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.605180161631</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.4631311150053</v>
       </c>
       <c r="I46" t="n">
         <v>85.93063304686405</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>40.68354721142292</v>
       </c>
       <c r="S46" t="n">
-        <v>167.576220229896</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>112.2433524665517</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9171092337691</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>151.6031129519778</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>450452.539805572</v>
+        <v>450452.5398055719</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>450452.539805572</v>
+        <v>450452.5398055718</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>489524.738354668</v>
+        <v>489524.7383546679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>489524.7383546681</v>
+        <v>489524.738354668</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>532813.1882516213</v>
+        <v>532813.1882516216</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>532813.1882516213</v>
+        <v>532813.1882516214</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>532813.1882516214</v>
+        <v>532813.1882516216</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>532813.1882516214</v>
+        <v>532813.1882516216</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>532813.1882516214</v>
+        <v>532813.1882516213</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>532813.1882516214</v>
+        <v>532813.1882516213</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>489524.7383546678</v>
+        <v>489524.738354668</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>489524.738354668</v>
+        <v>489524.7383546678</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>46077.15911899591</v>
       </c>
       <c r="C2" t="n">
-        <v>46077.15911899591</v>
+        <v>46077.1591189959</v>
       </c>
       <c r="D2" t="n">
-        <v>46077.15911899591</v>
+        <v>46077.1591189959</v>
       </c>
       <c r="E2" t="n">
         <v>163665.1575321069</v>
@@ -26328,22 +26328,22 @@
         <v>163665.1575321069</v>
       </c>
       <c r="G2" t="n">
-        <v>177729.0427631236</v>
+        <v>177729.0427631234</v>
       </c>
       <c r="H2" t="n">
-        <v>177729.0427631235</v>
+        <v>177729.0427631234</v>
       </c>
       <c r="I2" t="n">
         <v>191167.5997570449</v>
       </c>
       <c r="J2" t="n">
-        <v>191167.5997570449</v>
+        <v>191167.5997570448</v>
       </c>
       <c r="K2" t="n">
         <v>191167.5997570449</v>
       </c>
       <c r="L2" t="n">
-        <v>191167.5997570449</v>
+        <v>191167.5997570448</v>
       </c>
       <c r="M2" t="n">
         <v>191167.5997570448</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>522131.5409710288</v>
+        <v>522131.5409710287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45365.66955280135</v>
+        <v>45365.66955280136</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13278.14924542492</v>
+        <v>13278.14924542493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>11493.68054586994</v>
       </c>
       <c r="G4" t="n">
-        <v>12858.74951950641</v>
+        <v>12858.7495195064</v>
       </c>
       <c r="H4" t="n">
-        <v>12858.74951950641</v>
+        <v>12858.7495195064</v>
       </c>
       <c r="I4" t="n">
-        <v>20118.58247741348</v>
+        <v>20118.58247741349</v>
       </c>
       <c r="J4" t="n">
         <v>20118.58247741349</v>
@@ -26447,10 +26447,10 @@
         <v>20118.58247741348</v>
       </c>
       <c r="L4" t="n">
-        <v>20118.58247741349</v>
+        <v>20118.5824774135</v>
       </c>
       <c r="M4" t="n">
-        <v>20118.58247741349</v>
+        <v>20118.58247741348</v>
       </c>
       <c r="N4" t="n">
         <v>20118.58247741348</v>
@@ -26484,7 +26484,7 @@
         <v>35612.8737854374</v>
       </c>
       <c r="G5" t="n">
-        <v>39537.05455193893</v>
+        <v>39537.05455193891</v>
       </c>
       <c r="H5" t="n">
         <v>39537.05455193893</v>
@@ -26511,7 +26511,7 @@
         <v>39537.05455193891</v>
       </c>
       <c r="P5" t="n">
-        <v>39537.05455193892</v>
+        <v>39537.05455193891</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11801.57725942299</v>
+        <v>-13187.88982596337</v>
       </c>
       <c r="C6" t="n">
-        <v>-11801.57725942299</v>
+        <v>-13187.88982596338</v>
       </c>
       <c r="D6" t="n">
-        <v>-11801.57725942299</v>
+        <v>-13187.88982596338</v>
       </c>
       <c r="E6" t="n">
-        <v>-405572.9377702292</v>
+        <v>-406340.3661345953</v>
       </c>
       <c r="F6" t="n">
-        <v>116558.6032007996</v>
+        <v>115791.1748364334</v>
       </c>
       <c r="G6" t="n">
-        <v>79967.56913887686</v>
+        <v>79274.16122309492</v>
       </c>
       <c r="H6" t="n">
-        <v>125333.2386916782</v>
+        <v>124639.8307758962</v>
       </c>
       <c r="I6" t="n">
-        <v>115197.906298849</v>
+        <v>114575.2276304037</v>
       </c>
       <c r="J6" t="n">
-        <v>128476.0555442739</v>
+        <v>127853.3768758285</v>
       </c>
       <c r="K6" t="n">
-        <v>128476.055544274</v>
+        <v>127853.3768758286</v>
       </c>
       <c r="L6" t="n">
-        <v>128476.0555442739</v>
+        <v>127853.3768758285</v>
       </c>
       <c r="M6" t="n">
-        <v>27064.76668020175</v>
+        <v>26442.08801175643</v>
       </c>
       <c r="N6" t="n">
-        <v>128476.0555442739</v>
+        <v>127853.3768758285</v>
       </c>
       <c r="O6" t="n">
-        <v>125333.2386916781</v>
+        <v>124639.8307758963</v>
       </c>
       <c r="P6" t="n">
-        <v>125333.2386916781</v>
+        <v>124639.8307758963</v>
       </c>
     </row>
   </sheetData>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>406.9408551390512</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="F4" t="n">
         <v>406.9408551390512</v>
       </c>
       <c r="G4" t="n">
-        <v>456.873539076856</v>
+        <v>456.8735390768559</v>
       </c>
       <c r="H4" t="n">
         <v>456.873539076856</v>
       </c>
       <c r="I4" t="n">
-        <v>506.8062230146605</v>
+        <v>506.8062230146606</v>
       </c>
       <c r="J4" t="n">
-        <v>506.8062230146605</v>
+        <v>506.8062230146606</v>
       </c>
       <c r="K4" t="n">
         <v>506.8062230146605</v>
@@ -26822,7 +26822,7 @@
         <v>506.8062230146606</v>
       </c>
       <c r="M4" t="n">
-        <v>506.8062230146606</v>
+        <v>506.8062230146605</v>
       </c>
       <c r="N4" t="n">
         <v>506.8062230146605</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>40.74649463683402</v>
+        <v>40.74649463683403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>406.9408551390512</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>49.93268393780461</v>
+        <v>49.9326839378046</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.93268393780454</v>
+        <v>49.93268393780458</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>406.9408551390512</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>406.9408551390512</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.93268393780461</v>
+        <v>49.9326839378046</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>296.0974044601613</v>
+        <v>49.96770347568329</v>
       </c>
       <c r="K12" t="n">
         <v>117.3751922752162</v>
@@ -35503,13 +35503,13 @@
         <v>225.7713408342684</v>
       </c>
       <c r="O12" t="n">
-        <v>253.8582159391376</v>
+        <v>197.4467526340463</v>
       </c>
       <c r="P12" t="n">
         <v>150.5594445570449</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.22351203652363</v>
+        <v>382.7646763260926</v>
       </c>
       <c r="R12" t="n">
         <v>96.45323312960804</v>
@@ -35570,22 +35570,22 @@
         <v>77.80033834758945</v>
       </c>
       <c r="K13" t="n">
-        <v>260.5876057915694</v>
+        <v>115.4468814059652</v>
       </c>
       <c r="L13" t="n">
-        <v>79.06264052815112</v>
+        <v>396.2132579372653</v>
       </c>
       <c r="M13" t="n">
-        <v>406.9408551390512</v>
+        <v>406.9408551390511</v>
       </c>
       <c r="N13" t="n">
-        <v>406.9408551390512</v>
+        <v>85.89402558895203</v>
       </c>
       <c r="O13" t="n">
         <v>71.02713497054501</v>
       </c>
       <c r="P13" t="n">
-        <v>167.4737802459821</v>
+        <v>316.5107167725709</v>
       </c>
       <c r="Q13" t="n">
         <v>141.4881556411722</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.38823843005532</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>296.0974044601613</v>
       </c>
       <c r="K15" t="n">
-        <v>117.3751922752162</v>
+        <v>173.7866555803075</v>
       </c>
       <c r="L15" t="n">
         <v>176.7755614849915</v>
@@ -35746,7 +35746,7 @@
         <v>150.5594445570449</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.2467369115596</v>
+        <v>80.22351203652363</v>
       </c>
       <c r="R15" t="n">
         <v>96.45323312960804</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.80033834758945</v>
+        <v>12.1423952856335</v>
       </c>
       <c r="K16" t="n">
         <v>52.22377388680771</v>
@@ -35822,10 +35822,10 @@
         <v>389.2844677167475</v>
       </c>
       <c r="P16" t="n">
-        <v>62.67711413738859</v>
+        <v>255.8845119527154</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.4881556411722</v>
+        <v>13.93870088780139</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8288107497665</v>
+        <v>131.5276799454456</v>
       </c>
       <c r="L18" t="n">
         <v>195.8053276830714</v>
@@ -35983,10 +35983,10 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.41111562058418</v>
+        <v>450.9836479376845</v>
       </c>
       <c r="R18" t="n">
-        <v>13.03651269639115</v>
+        <v>101.8948121680894</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>60.76049850088539</v>
       </c>
       <c r="L19" t="n">
-        <v>372.1222660125424</v>
+        <v>407.1373263518684</v>
       </c>
       <c r="M19" t="n">
         <v>444.6621595681132</v>
@@ -36056,7 +36056,7 @@
         <v>432.5262374631419</v>
       </c>
       <c r="O19" t="n">
-        <v>399.6701480218868</v>
+        <v>364.6550876825604</v>
       </c>
       <c r="P19" t="n">
         <v>61.86464886632401</v>
@@ -36199,7 +36199,7 @@
         <v>19.40578543853783</v>
       </c>
       <c r="J21" t="n">
-        <v>177.9555915724365</v>
+        <v>304.377784091973</v>
       </c>
       <c r="K21" t="n">
         <v>131.5276799454456</v>
@@ -36208,7 +36208,7 @@
         <v>195.8053276830714</v>
       </c>
       <c r="M21" t="n">
-        <v>456.873539076856</v>
+        <v>236.4143006632345</v>
       </c>
       <c r="N21" t="n">
         <v>248.5659293764346</v>
@@ -36220,7 +36220,7 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.41111562058418</v>
+        <v>185.4481615146691</v>
       </c>
       <c r="R21" t="n">
         <v>101.8948121680894</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.33723936416887</v>
+        <v>82.99518242612481</v>
       </c>
       <c r="K22" t="n">
-        <v>60.76049850088539</v>
+        <v>269.1243304056471</v>
       </c>
       <c r="L22" t="n">
         <v>407.1373263518684</v>
       </c>
       <c r="M22" t="n">
-        <v>444.6621595681132</v>
+        <v>96.21130147287536</v>
       </c>
       <c r="N22" t="n">
-        <v>432.5262374631419</v>
+        <v>97.1380541827525</v>
       </c>
       <c r="O22" t="n">
-        <v>364.6550876825609</v>
+        <v>383.3900877490911</v>
       </c>
       <c r="P22" t="n">
-        <v>61.86464886632401</v>
+        <v>325.3974604553322</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.09142157796333</v>
+        <v>147.6408763313342</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>180.1585289102266</v>
+        <v>180.1585289102271</v>
       </c>
       <c r="K23" t="n">
         <v>186.7028310585639</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5276799454456</v>
+        <v>506.8062230146606</v>
       </c>
       <c r="L24" t="n">
         <v>195.8053276830714</v>
@@ -36448,7 +36448,7 @@
         <v>236.4143006632345</v>
       </c>
       <c r="N24" t="n">
-        <v>506.8062230146605</v>
+        <v>248.5659293764346</v>
       </c>
       <c r="O24" t="n">
         <v>218.2993478657853</v>
@@ -36457,10 +36457,10 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q24" t="n">
-        <v>144.3269068868939</v>
+        <v>362.2766579120813</v>
       </c>
       <c r="R24" t="n">
-        <v>101.8948121680894</v>
+        <v>13.03651269639115</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,7 +36524,7 @@
         <v>407.1373263518684</v>
       </c>
       <c r="M25" t="n">
-        <v>343.8275412116919</v>
+        <v>444.6621595681132</v>
       </c>
       <c r="N25" t="n">
         <v>432.5262374631419</v>
@@ -36533,7 +36533,7 @@
         <v>399.6701480218868</v>
       </c>
       <c r="P25" t="n">
-        <v>325.3974604553322</v>
+        <v>224.562842098911</v>
       </c>
       <c r="Q25" t="n">
         <v>20.09142157796333</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>110.7237269303754</v>
+        <v>308.4369805022889</v>
       </c>
       <c r="K26" t="n">
         <v>186.7028310585639</v>
@@ -36615,7 +36615,7 @@
         <v>218.1812607396815</v>
       </c>
       <c r="Q26" t="n">
-        <v>341.8512613072236</v>
+        <v>144.1380077353103</v>
       </c>
       <c r="R26" t="n">
         <v>48.9038527773305</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K27" t="n">
         <v>131.5276799454456</v>
@@ -36691,10 +36691,10 @@
         <v>218.2993478657853</v>
       </c>
       <c r="P27" t="n">
-        <v>167.2954906277853</v>
+        <v>506.8062230146606</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.4254999968181</v>
+        <v>398.0444685944211</v>
       </c>
       <c r="R27" t="n">
         <v>13.03651269639115</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.33723936416887</v>
+        <v>82.99518242612481</v>
       </c>
       <c r="K28" t="n">
         <v>60.76049850088539</v>
@@ -36770,10 +36770,10 @@
         <v>399.6701480218868</v>
       </c>
       <c r="P28" t="n">
-        <v>224.5628420989108</v>
+        <v>61.86464886632401</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.09142157796333</v>
+        <v>117.1316717485945</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.1585289102266</v>
+        <v>308.4369805022884</v>
       </c>
       <c r="K29" t="n">
         <v>186.7028310585639</v>
@@ -36855,7 +36855,7 @@
         <v>144.1380077353103</v>
       </c>
       <c r="R29" t="n">
-        <v>177.1823043693922</v>
+        <v>48.9038527773305</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K30" t="n">
         <v>131.5276799454456</v>
@@ -36928,10 +36928,10 @@
         <v>218.2993478657853</v>
       </c>
       <c r="P30" t="n">
-        <v>167.2954906277853</v>
+        <v>506.8062230146605</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.4254999968181</v>
+        <v>398.0444685944209</v>
       </c>
       <c r="R30" t="n">
         <v>13.03651269639115</v>
@@ -36992,13 +36992,13 @@
         <v>82.99518242612481</v>
       </c>
       <c r="K31" t="n">
-        <v>115.169340424375</v>
+        <v>269.1243304056471</v>
       </c>
       <c r="L31" t="n">
-        <v>407.1373263518684</v>
+        <v>168.2642898643666</v>
       </c>
       <c r="M31" t="n">
-        <v>96.21130147287536</v>
+        <v>444.6621595681132</v>
       </c>
       <c r="N31" t="n">
         <v>432.5262374631419</v>
@@ -37007,7 +37007,7 @@
         <v>399.6701480218868</v>
       </c>
       <c r="P31" t="n">
-        <v>325.3974604553322</v>
+        <v>61.86464886632401</v>
       </c>
       <c r="Q31" t="n">
         <v>147.6408763313342</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.40578543853783</v>
       </c>
       <c r="J33" t="n">
-        <v>58.248083107495</v>
+        <v>304.377784091973</v>
       </c>
       <c r="K33" t="n">
-        <v>506.8062230146606</v>
+        <v>131.5276799454456</v>
       </c>
       <c r="L33" t="n">
         <v>195.8053276830714</v>
@@ -37168,10 +37168,10 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q33" t="n">
-        <v>362.2766579120813</v>
+        <v>383.1614150865824</v>
       </c>
       <c r="R33" t="n">
-        <v>13.03651269639115</v>
+        <v>101.8948121680894</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>17.33723936416887</v>
+        <v>82.99518242612481</v>
       </c>
       <c r="K34" t="n">
-        <v>60.76049850088539</v>
+        <v>269.1243304056471</v>
       </c>
       <c r="L34" t="n">
         <v>407.1373263518684</v>
@@ -37241,13 +37241,13 @@
         <v>432.5262374631419</v>
       </c>
       <c r="O34" t="n">
-        <v>399.6701480218868</v>
+        <v>81.41281527568427</v>
       </c>
       <c r="P34" t="n">
-        <v>224.562842098911</v>
+        <v>141.2489451250252</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.09142157796333</v>
+        <v>147.6408763313342</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>110.7237269303754</v>
+        <v>308.4369805022884</v>
       </c>
       <c r="K35" t="n">
         <v>186.7028310585639</v>
@@ -37326,10 +37326,10 @@
         <v>218.1812607396815</v>
       </c>
       <c r="Q35" t="n">
-        <v>213.572809715162</v>
+        <v>144.1380077353103</v>
       </c>
       <c r="R35" t="n">
-        <v>177.1823043693922</v>
+        <v>48.9038527773305</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>58.248083107495</v>
+        <v>205.4630033361313</v>
       </c>
       <c r="K36" t="n">
-        <v>506.8062230146606</v>
+        <v>131.5276799454456</v>
       </c>
       <c r="L36" t="n">
         <v>195.8053276830714</v>
@@ -37405,10 +37405,10 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q36" t="n">
-        <v>362.2766579120813</v>
+        <v>501.4819812809617</v>
       </c>
       <c r="R36" t="n">
-        <v>13.03651269639115</v>
+        <v>101.8948121680894</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>82.99518242612481</v>
+        <v>17.33723936416887</v>
       </c>
       <c r="K37" t="n">
-        <v>269.1243304056471</v>
+        <v>60.76049850088539</v>
       </c>
       <c r="L37" t="n">
         <v>407.1373263518684</v>
@@ -37478,13 +37478,13 @@
         <v>432.5262374631419</v>
       </c>
       <c r="O37" t="n">
-        <v>81.41281527568427</v>
+        <v>399.6701480218868</v>
       </c>
       <c r="P37" t="n">
-        <v>141.2489451250252</v>
+        <v>224.5628420989108</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.6408763313342</v>
+        <v>20.09142157796333</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>180.1585289102266</v>
+        <v>110.7237269303754</v>
       </c>
       <c r="K38" t="n">
-        <v>186.7028310585639</v>
+        <v>384.416084630477</v>
       </c>
       <c r="L38" t="n">
         <v>246.7175466273121</v>
@@ -37566,7 +37566,7 @@
         <v>144.1380077353103</v>
       </c>
       <c r="R38" t="n">
-        <v>177.1823043693922</v>
+        <v>48.9038527773305</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.40578543853783</v>
       </c>
       <c r="J39" t="n">
-        <v>304.377784091973</v>
+        <v>186.0572178975934</v>
       </c>
       <c r="K39" t="n">
         <v>131.5276799454456</v>
@@ -37642,10 +37642,10 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.4254999968178</v>
+        <v>501.4819812809617</v>
       </c>
       <c r="R39" t="n">
-        <v>13.03651269639115</v>
+        <v>101.8948121680894</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>399.6701480218868</v>
       </c>
       <c r="P40" t="n">
-        <v>224.5628420989106</v>
+        <v>224.5628420989108</v>
       </c>
       <c r="Q40" t="n">
         <v>20.09142157796333</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.7237269303754</v>
+        <v>110.7237269303751</v>
       </c>
       <c r="K41" t="n">
         <v>186.7028310585639</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.40578543853783</v>
       </c>
       <c r="J42" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K42" t="n">
-        <v>131.5276799454456</v>
+        <v>195.0903028394345</v>
       </c>
       <c r="L42" t="n">
         <v>195.8053276830714</v>
@@ -37879,7 +37879,7 @@
         <v>167.2954906277853</v>
       </c>
       <c r="Q42" t="n">
-        <v>293.7122464249048</v>
+        <v>456.8735390768559</v>
       </c>
       <c r="R42" t="n">
         <v>13.03651269639115</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>17.33723936416887</v>
+        <v>54.17755071622349</v>
       </c>
       <c r="K43" t="n">
         <v>60.76049850088539</v>
       </c>
       <c r="L43" t="n">
-        <v>372.1222660125419</v>
+        <v>407.1373263518684</v>
       </c>
       <c r="M43" t="n">
         <v>444.6621595681132</v>
       </c>
       <c r="N43" t="n">
-        <v>432.5262374631419</v>
+        <v>97.1380541827525</v>
       </c>
       <c r="O43" t="n">
         <v>399.6701480218868</v>
       </c>
       <c r="P43" t="n">
-        <v>61.86464886632401</v>
+        <v>325.3974604553322</v>
       </c>
       <c r="Q43" t="n">
         <v>20.09142157796333</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.40578543853783</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>304.377784091973</v>
+        <v>58.248083107495</v>
       </c>
       <c r="K45" t="n">
         <v>131.5276799454456</v>
@@ -38110,16 +38110,16 @@
         <v>248.5659293764346</v>
       </c>
       <c r="O45" t="n">
-        <v>218.2993478657853</v>
+        <v>301.2677561983119</v>
       </c>
       <c r="P45" t="n">
         <v>167.2954906277853</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.4481615146688</v>
+        <v>456.8735390768559</v>
       </c>
       <c r="R45" t="n">
-        <v>101.8948121680894</v>
+        <v>13.03651269639115</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38189,13 +38189,13 @@
         <v>97.1380541827525</v>
       </c>
       <c r="O46" t="n">
-        <v>399.6701480218868</v>
+        <v>383.3900877490906</v>
       </c>
       <c r="P46" t="n">
         <v>325.3974604553322</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.3608160585382</v>
+        <v>147.6408763313342</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
